--- a/requirements/MOSIP_Configurations_Consolidated List_Updated_12Oct18_CV.xlsx
+++ b/requirements/MOSIP_Configurations_Consolidated List_Updated_12Oct18_CV.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F5D1F7A0-5E55-4C33-8E32-43585EB306EE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7065" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7065" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Kernel" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="268">
   <si>
     <r>
       <t xml:space="preserve">Configurations: </t>
@@ -58,12 +57,21 @@
     <t>Other Values</t>
   </si>
   <si>
+    <t>Mindtree Comments</t>
+  </si>
+  <si>
+    <t>Customer Comments</t>
+  </si>
+  <si>
     <t>Archival Policy - No. of days after the audits can be archived</t>
   </si>
   <si>
     <t>Admin</t>
   </si>
   <si>
+    <t>SI can choose to archive audits as required</t>
+  </si>
+  <si>
     <t>OTP Timeout Policy - Time after which the OTP expires</t>
   </si>
   <si>
@@ -85,6 +93,9 @@
     <t>UIN Length</t>
   </si>
   <si>
+    <t>MOSIP will provide a default algorithm. Length can be customized by customizing the algorithm. SI can choose to replace the existing algorithm with a custom preferred algorithm</t>
+  </si>
+  <si>
     <t>VID Length</t>
   </si>
   <si>
@@ -122,6 +133,9 @@
   </si>
   <si>
     <t>Values to be received from GoM</t>
+  </si>
+  <si>
+    <t>OK - Check with Shrikant on GoM requirement on list of restricted numbers</t>
   </si>
   <si>
     <t>Mail box Archival Policy - No. of days after which emails can be archived</t>
@@ -156,11 +170,19 @@
     <t>All Values</t>
   </si>
   <si>
+    <t>Select applicable mode of login to Pre-registration</t>
+  </si>
+  <si>
     <t>Mobile</t>
   </si>
   <si>
     <t>- Mobile
 - Email</t>
+  </si>
+  <si>
+    <t>- Setup pre-registration workflow
+&gt; Select event(s) as part of the workflow
+&gt; Mark each selected event as mandatory/optional</t>
   </si>
   <si>
     <t>&gt; Demo Details
@@ -178,16 +200,28 @@
     <t>English</t>
   </si>
   <si>
+    <t>French, Arabic</t>
+  </si>
+  <si>
     <t>Select default language for transliteration</t>
   </si>
   <si>
     <t>Select list of languages for translation</t>
   </si>
   <si>
+    <t>English, French,Arabic</t>
+  </si>
+  <si>
+    <t>Configurable</t>
+  </si>
+  <si>
     <t>Select list of languages for transliteration</t>
   </si>
   <si>
     <t>Select applicable Demographic Fields from super set of application data</t>
+  </si>
+  <si>
+    <t>(1) Full Name (2) Date of Birth/Age (3) Gender (4) Address (5) Region (6) Province (7) City (8) Local Administrative Authority (9) Mobile Number (10) Email ID (11) CNIE Number/PIN Number</t>
   </si>
   <si>
     <t>Based on recent discussion, MOSIP will capture fields required by GoM. These fields will be hard coded and UI will be generated based on it.
@@ -197,6 +231,21 @@
     <t>Mapping of document type with list of valid documents from master data</t>
   </si>
   <si>
+    <t>Configure acknowledgement template for Successful pre-registration</t>
+  </si>
+  <si>
+    <t>Configure acknowledgement template for failed/erroneous pre-registration</t>
+  </si>
+  <si>
+    <t>Configure pdf template for Successful pre-registration</t>
+  </si>
+  <si>
+    <t>Configure template for SMS notification for successful pre-registration (In all supported languages)</t>
+  </si>
+  <si>
+    <t>Configure template for Email notification for successful pre-registration (In all supported languages)</t>
+  </si>
+  <si>
     <t>Configure template for OTP generation for login - SMS (In all supported languages)</t>
   </si>
   <si>
@@ -212,7 +261,25 @@
     <t>2-10</t>
   </si>
   <si>
-    <t>Configurable</t>
+    <t>Upper limit will be configurable</t>
+  </si>
+  <si>
+    <t>EC Setup: Select registration Centre Status</t>
+  </si>
+  <si>
+    <t>EC Setup: Configure number of workstations for a selected registration Centre</t>
+  </si>
+  <si>
+    <t>EC Setup: Configure timespan of each registration for a selected registration Centre</t>
+  </si>
+  <si>
+    <t>15 mins</t>
+  </si>
+  <si>
+    <t>EC Setup: Configure the working hours of a registration centre</t>
+  </si>
+  <si>
+    <t>Start and End Time</t>
   </si>
   <si>
     <t>Configure Time-span in advance of which an appointment can be Cancelled (EG: Upto 24hrs prior to selected timelsot)</t>
@@ -221,7 +288,19 @@
     <t>Configure Time-span in advance of which Appointment can be re-booked/demo data can be updated (EG: Upto 24hrs prior to selected timelsot)</t>
   </si>
   <si>
+    <t>24 hrs</t>
+  </si>
+  <si>
     <t>Max Document size allowed to be uploaded</t>
+  </si>
+  <si>
+    <t>Non-configurable - Default value to be aligned with Registration</t>
+  </si>
+  <si>
+    <t>Configure Working Hours for a Registration Centre</t>
+  </si>
+  <si>
+    <t>8 hrs</t>
   </si>
   <si>
     <r>
@@ -271,6 +350,9 @@
     <t>Dongle</t>
   </si>
   <si>
+    <t>This is not a config but a one-time setup activity</t>
+  </si>
+  <si>
     <t>Mode of Login to Client</t>
   </si>
   <si>
@@ -363,10 +445,17 @@
     <t>Face retry attempts</t>
   </si>
   <si>
+    <t>Supervisor verification required for exceptions</t>
+  </si>
+  <si>
     <t>Yes</t>
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GoM's requirement does not state SPVR verification - To be included as part of v1
+</t>
   </si>
   <si>
     <t>Document Types required for registration
@@ -446,455 +535,6 @@
 &gt; Policy sync from server to client
 &gt; Client State sync from server to client
 User-Role-Rights data sync from server to client</t>
-  </si>
-  <si>
-    <t>Frequency of automatic sync of pre-registration data from server to client</t>
-  </si>
-  <si>
-    <t>Ability to select parameter to block registration, if not synced</t>
-  </si>
-  <si>
-    <t>Maximum duration</t>
-  </si>
-  <si>
-    <t>Maximum packets</t>
-  </si>
-  <si>
-    <t>Maximum duration to which registration is permitted without sync of master data</t>
-  </si>
-  <si>
-    <t>7 days</t>
-  </si>
-  <si>
-    <t>Maximum registrations that are permitted without sync of master data</t>
-  </si>
-  <si>
-    <t>Mode of notifying individual</t>
-  </si>
-  <si>
-    <t>Both</t>
-  </si>
-  <si>
-    <t>SMS
-Email
-None</t>
-  </si>
-  <si>
-    <t>Number of successful fingerprint authentications required to onboard user</t>
-  </si>
-  <si>
-    <t>1..10</t>
-  </si>
-  <si>
-    <t>Number of successful iris authentications required to onboard user</t>
-  </si>
-  <si>
-    <t>Process config - Turn on/off: GPS validation, Operator Verification, Supervisor Verification - Exceptions, Supervisor Verification - EoD, Fingerprint capture etc..</t>
-  </si>
-  <si>
-    <t>The Distance Parameter for GPS Verification</t>
-  </si>
-  <si>
-    <t>200m</t>
-  </si>
-  <si>
-    <t>Type of Officer Authentication</t>
-  </si>
-  <si>
-    <t>FingerPrint
-Iris
-FingerPrint
-PIN</t>
-  </si>
-  <si>
-    <t>Type of Supervisor Authentication</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Configurations: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Bookman Old Style"/>
-        <family val="1"/>
-      </rPr>
-      <t>Registration Server</t>
-    </r>
-  </si>
-  <si>
-    <t>Threshold Time at Landing Zone waiting for correction packet after which the Packet can be moved for Virus Scan</t>
-  </si>
-  <si>
-    <t>48hrs</t>
-  </si>
-  <si>
-    <t>Type of Notification to be triggered  &lt;Applicable for all modules&gt;</t>
-  </si>
-  <si>
-    <t>Email
-SMS
-Both</t>
-  </si>
-  <si>
-    <t>Configure parameters based on which packets will be listed for  QC Check</t>
-  </si>
-  <si>
-    <t>MOSIP will randomly list packets for QC check. (EG: Packets with exceptions)
-SI can implement preferred logic for QC check.</t>
-  </si>
-  <si>
-    <t>Parent/Guardian Authentication Type</t>
-  </si>
-  <si>
-    <t>FingerPrint</t>
-  </si>
-  <si>
-    <t>FingerPrint
-Iris</t>
-  </si>
-  <si>
-    <t>The Age of Minor</t>
-  </si>
-  <si>
-    <t>5years</t>
-  </si>
-  <si>
-    <t>1 - 10</t>
-  </si>
-  <si>
-    <t>FingerPrint Quality Score Threshold - For each finger</t>
-  </si>
-  <si>
-    <t>Iris Quality Score Threshold  - For each eye</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FacePhoto Quality Score Threshold </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo DeDupe Lower Limit </t>
-  </si>
-  <si>
-    <t>Demo DeDupe Upper Limit</t>
-  </si>
-  <si>
-    <t>Bio DeDupe Lower Limit</t>
-  </si>
-  <si>
-    <t>Bio DeDupe Upper Limit</t>
-  </si>
-  <si>
-    <t>Workflow Configurability - Turn on/off a process</t>
-  </si>
-  <si>
-    <t>Correction/Update Authentication Type</t>
-  </si>
-  <si>
-    <t>Auto DeActivate for Unused - Configure if required</t>
-  </si>
-  <si>
-    <t>Yes
-No</t>
-  </si>
-  <si>
-    <t>Configure number of years for Auto DeActivation</t>
-  </si>
-  <si>
-    <t>3years</t>
-  </si>
-  <si>
-    <t>Auto DeActivate for Child biometrics Not Updated, after child age limit is exceeded</t>
-  </si>
-  <si>
-    <t>Path For Landing Zone Folder</t>
-  </si>
-  <si>
-    <t>System</t>
-  </si>
-  <si>
-    <t>Scheduled Time for Landing Zone Job</t>
-  </si>
-  <si>
-    <t>0 0/1 * * * *</t>
-  </si>
-  <si>
-    <t>Path For Virus Scan Folder</t>
-  </si>
-  <si>
-    <t>Path for Virus Scan Retry Folder</t>
-  </si>
-  <si>
-    <t>Scheduled Time for Virus Scanning Job</t>
-  </si>
-  <si>
-    <t>Maximum Packet Size</t>
-  </si>
-  <si>
-    <t>5mb</t>
-  </si>
-  <si>
-    <t>Virus Scanner IP</t>
-  </si>
-  <si>
-    <t>127.0.0.1</t>
-  </si>
-  <si>
-    <t>Virus Scanner Port</t>
-  </si>
-  <si>
-    <t>Configure SMS Template  for notification to be triggered for UIN issued for UIN issuance</t>
-  </si>
-  <si>
-    <t>Configure Email Template  for notification to be triggered for UIN issued for UIN issuance</t>
-  </si>
-  <si>
-    <t>Configure SMS Template  for notification to be triggered for UIN issued for UIN rejection</t>
-  </si>
-  <si>
-    <t>Configure Email Template  for notification to be triggered for UIN issued for UIN rejection</t>
-  </si>
-  <si>
-    <t>Configure SMS Template for notification to be triggered child turning 5/15/18 etc</t>
-  </si>
-  <si>
-    <t>Configure Email Template for notification to be triggered child turning 5/15/18 etc</t>
-  </si>
-  <si>
-    <t>Configure SMS Template for notification to be triggered for automated de-activation</t>
-  </si>
-  <si>
-    <t>Configure Email Template for notification to be triggered for automated de-activation</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Configurations: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Bookman Old Style"/>
-        <family val="1"/>
-      </rPr>
-      <t>ID-Authentication</t>
-    </r>
-  </si>
-  <si>
-    <t>Setup TSP KYC Preferences</t>
-  </si>
-  <si>
-    <t>Full KYC</t>
-  </si>
-  <si>
-    <t>&gt;Limited - Select Demo fields (Name,Address, DOB, Gender, Phone No, e-mail)
-&gt;No</t>
-  </si>
-  <si>
-    <t>Setup permissable Resident Modes of Authentication for a TSP</t>
-  </si>
-  <si>
-    <t>OTP
-Biometrics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Demographic
-Static PIN</t>
-  </si>
-  <si>
-    <t>Setup Authentication Data Retention Parameters (X days/X no of requests)</t>
-  </si>
-  <si>
-    <t>Days</t>
-  </si>
-  <si>
-    <t>Requests</t>
-  </si>
-  <si>
-    <t>Setup Authentication Data Retention Period/Days</t>
-  </si>
-  <si>
-    <t>2-5 years</t>
-  </si>
-  <si>
-    <t>Setup Authentication Data Retention Requests</t>
-  </si>
-  <si>
-    <t>650 million</t>
-  </si>
-  <si>
-    <t>100-1000 million</t>
-  </si>
-  <si>
-    <t>Setup Audit Authentication Data Retention parameters (Y days/Y no of Requests)</t>
-  </si>
-  <si>
-    <t>Setup Audit Authentication Data Retention Period/Days</t>
-  </si>
-  <si>
-    <t>Setup Audit Authentication Data Retention Requests</t>
-  </si>
-  <si>
-    <t>650 milliom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Setup E-mail Template for Successful Authentication </t>
-  </si>
-  <si>
-    <t>Setup E-mail Template for Authentication Failure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Setup SMS Template for Successful Authentication </t>
-  </si>
-  <si>
-    <t>Setup SMS Template for Authentication Failure</t>
-  </si>
-  <si>
-    <t>Configure preference to turn on/off Tokenization for a Country,  as a process</t>
-  </si>
-  <si>
-    <t>ON</t>
-  </si>
-  <si>
-    <t>OFF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Set up  Authentication Quality Threshold for Fingerprints </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Set up  Authentication Quality Threshold for IRIS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Set up  Authentication Quality Threshold for Face/Photo </t>
-  </si>
-  <si>
-    <t>Configure SMS template for OTP generation for OTP Based Authentication</t>
-  </si>
-  <si>
-    <t>Configure e-mail template for OTP generation for OTP Based Authentication</t>
-  </si>
-  <si>
-    <t>Configure preference to turn on/off Phonetics Match for a Country, as a process</t>
-  </si>
-  <si>
-    <t>Configure authentications permissable for e-KYC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OTP, Biometrics
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Static Pin</t>
-  </si>
-  <si>
-    <t>Configure desirable mode (SMS/e-mail ) for auth responses and OTP notification for a country</t>
-  </si>
-  <si>
-    <t>both</t>
-  </si>
-  <si>
-    <t>SMS only. E-mail only</t>
-  </si>
-  <si>
-    <t>Configure N time period threshold for accepting auth request for a country</t>
-  </si>
-  <si>
-    <t>24 hrs</t>
-  </si>
-  <si>
-    <t>1-24 hrs</t>
-  </si>
-  <si>
-    <t>OK - Aadhaar has 24hrs as the defined threshold</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Configurations: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Bookman Old Style"/>
-        <family val="1"/>
-      </rPr>
-      <t>Resident Services</t>
-    </r>
-  </si>
-  <si>
-    <t>TBD</t>
-  </si>
-  <si>
-    <t>Password protection required for the generated UIN PDF</t>
-  </si>
-  <si>
-    <t>This is not a config. MOSIP will implement UIN download with password protected PDF</t>
-  </si>
-  <si>
-    <t>Setup type of password for UIN PDF</t>
-  </si>
-  <si>
-    <t>Postal Code</t>
-  </si>
-  <si>
-    <t>This is not a config. MOSIP will implement UIN download with Postal Code as a password protected PDF</t>
-  </si>
-  <si>
-    <t>Set up template for display of VID on portal - Virtual ID generation</t>
-  </si>
-  <si>
-    <t>Set up SMS template for static pin generation</t>
-  </si>
-  <si>
-    <t>Set up Email template for static pin generation</t>
-  </si>
-  <si>
-    <t>Set up SMS template for virtual ID generation</t>
-  </si>
-  <si>
-    <t>Set up Email template for virtual ID generation</t>
-  </si>
-  <si>
-    <t>Others to be added</t>
-  </si>
-  <si>
-    <t>Supervisor verification required for exceptions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GoM's requirement does not state SPVR verification - To be included as part of v1
-</t>
-  </si>
-  <si>
-    <t>Run scheduler job once in a day - EG: 6AM</t>
-  </si>
-  <si>
-    <t>MOSIP will provide a default algorithm. Length can be customized by customizing the algorithm. SI can choose to replace the existing algorithm with a custom preferred algorithm</t>
-  </si>
-  <si>
-    <t>SI can choose to archive audits as required</t>
-  </si>
-  <si>
-    <t>Set up one PDF generation template for download UIN 
-- Includes selection of parameters to be displayed (UIN/QR Code/Digital Sign)
-- In two languages: 1.Default language and 2.Language of registration)</t>
-  </si>
-  <si>
-    <t>Set up one PDF generation template to retrieve lost UIN
-- Includes selection of parameters to be displayed (UIN/QR Code/Digital Sign)
-- In two languages: 1.Default language and 2.Language of registration)</t>
-  </si>
-  <si>
-    <t>OK - Check with Shrikant on GoM requirement on list of restricted numbers</t>
-  </si>
-  <si>
-    <t>This is not a config but a one-time setup activity</t>
   </si>
   <si>
     <r>
@@ -910,6 +550,12 @@
       </rPr>
       <t>- Input from Shrikant: This should be configurable</t>
     </r>
+  </si>
+  <si>
+    <t>Frequency of automatic sync of pre-registration data from server to client</t>
+  </si>
+  <si>
+    <t>Run scheduler job once in a day - EG: 6AM</t>
   </si>
   <si>
     <r>
@@ -937,6 +583,47 @@
     </r>
   </si>
   <si>
+    <t>Ability to select parameter to block registration, if not synced</t>
+  </si>
+  <si>
+    <t>Maximum duration</t>
+  </si>
+  <si>
+    <t>Maximum packets</t>
+  </si>
+  <si>
+    <t>Maximum duration to which registration is permitted without sync of master data</t>
+  </si>
+  <si>
+    <t>7 days</t>
+  </si>
+  <si>
+    <t>Maximum registrations that are permitted without sync of master data</t>
+  </si>
+  <si>
+    <t>Mode of notifying individual</t>
+  </si>
+  <si>
+    <t>Both</t>
+  </si>
+  <si>
+    <t>SMS
+Email
+None</t>
+  </si>
+  <si>
+    <t>Number of successful fingerprint authentications required to onboard user</t>
+  </si>
+  <si>
+    <t>1..10</t>
+  </si>
+  <si>
+    <t>Number of successful iris authentications required to onboard user</t>
+  </si>
+  <si>
+    <t>Process config - Turn on/off: GPS validation, Operator Verification, Supervisor Verification - Exceptions, Supervisor Verification - EoD, Fingerprint capture etc..</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">As part of v1, MOSIP will implement the required processes and implement a derived fixed flow based on GoM requirement.
 </t>
@@ -952,100 +639,427 @@
     </r>
   </si>
   <si>
+    <t>The Distance Parameter for GPS Verification</t>
+  </si>
+  <si>
+    <t>200m</t>
+  </si>
+  <si>
+    <t>Type of Officer Authentication</t>
+  </si>
+  <si>
+    <t>FingerPrint
+Iris
+FingerPrint
+PIN</t>
+  </si>
+  <si>
+    <t>Type of Supervisor Authentication</t>
+  </si>
+  <si>
+    <t>Non-configurable - Default value to be aligned with Pre-Registration</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Configurations: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Bookman Old Style"/>
+        <family val="1"/>
+      </rPr>
+      <t>Registration Server</t>
+    </r>
+  </si>
+  <si>
+    <t>Threshold Time at Landing Zone waiting for correction packet after which the Packet can be moved for Virus Scan</t>
+  </si>
+  <si>
+    <t>48hrs</t>
+  </si>
+  <si>
+    <t>Type of Notification to be triggered  &lt;Applicable for all modules&gt;</t>
+  </si>
+  <si>
+    <t>Email
+SMS
+Both</t>
+  </si>
+  <si>
+    <t>Configure parameters based on which packets will be listed for  QC Check</t>
+  </si>
+  <si>
+    <t>MOSIP will randomly list packets for QC check. (EG: Packets with exceptions)
+SI can implement preferred logic for QC check.</t>
+  </si>
+  <si>
+    <t>Parent/Guardian Authentication Type</t>
+  </si>
+  <si>
+    <t>FingerPrint</t>
+  </si>
+  <si>
+    <t>FingerPrint
+Iris</t>
+  </si>
+  <si>
+    <t>The Age of Minor</t>
+  </si>
+  <si>
+    <t>5years</t>
+  </si>
+  <si>
+    <t>1 - 10</t>
+  </si>
+  <si>
+    <t>FingerPrint Quality Score Threshold - For each finger</t>
+  </si>
+  <si>
+    <t>Iris Quality Score Threshold  - For each eye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FacePhoto Quality Score Threshold </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo DeDupe Lower Limit </t>
+  </si>
+  <si>
+    <t>Demo DeDupe Upper Limit</t>
+  </si>
+  <si>
+    <t>Bio DeDupe Lower Limit</t>
+  </si>
+  <si>
+    <t>Bio DeDupe Upper Limit</t>
+  </si>
+  <si>
+    <t>Workflow Configurability - Turn on/off a process</t>
+  </si>
+  <si>
+    <t>Correction/Update Authentication Type</t>
+  </si>
+  <si>
+    <t>This is not configurable. MOSIP will default to finger print</t>
+  </si>
+  <si>
+    <t>Auto DeActivate for Unused - Configure if required</t>
+  </si>
+  <si>
+    <t>Yes
+No</t>
+  </si>
+  <si>
     <t>Confirm this is not required</t>
   </si>
   <si>
-    <t>This is not configurable. MOSIP will default to finger print</t>
+    <t>Configure number of years for Auto DeActivation</t>
+  </si>
+  <si>
+    <t>3years</t>
+  </si>
+  <si>
+    <t>Auto DeActivate for Child biometrics Not Updated, after child age limit is exceeded</t>
   </si>
   <si>
     <t>This is not configurable - MOSIP will wait for 6 months by default</t>
   </si>
   <si>
+    <t>Path For Landing Zone Folder</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Scheduled Time for Landing Zone Job</t>
+  </si>
+  <si>
+    <t>0 0/1 * * * *</t>
+  </si>
+  <si>
+    <t>Path For Virus Scan Folder</t>
+  </si>
+  <si>
+    <t>Path for Virus Scan Retry Folder</t>
+  </si>
+  <si>
+    <t>Scheduled Time for Virus Scanning Job</t>
+  </si>
+  <si>
+    <t>Maximum Packet Size</t>
+  </si>
+  <si>
+    <t>5mb</t>
+  </si>
+  <si>
     <t>This will be a fixed value. We can have a validation to check average packet size as 5mb</t>
   </si>
   <si>
-    <t>Mindtree Comments</t>
-  </si>
-  <si>
-    <t>Customer Comments</t>
-  </si>
-  <si>
-    <t>French, Arabic</t>
-  </si>
-  <si>
-    <t>English, French,Arabic</t>
-  </si>
-  <si>
-    <t>15 mins</t>
-  </si>
-  <si>
-    <t>Configure Working Hours for a Registration Centre</t>
-  </si>
-  <si>
-    <t>8 hrs</t>
-  </si>
-  <si>
-    <t>(1) Full Name (2) Date of Birth/Age (3) Gender (4) Address (5) Region (6) Province (7) City (8) Local Administrative Authority (9) Mobile Number (10) Email ID (11) CNIE Number/PIN Number</t>
-  </si>
-  <si>
-    <t>EC Setup: Configure the working hours of a registration centre</t>
-  </si>
-  <si>
-    <t>Select applicable mode of login to Pre-registration</t>
-  </si>
-  <si>
-    <t>- Setup pre-registration workflow
-&gt; Select event(s) as part of the workflow
-&gt; Mark each selected event as mandatory/optional</t>
-  </si>
-  <si>
-    <t>Configure acknowledgement template for Successful pre-registration</t>
-  </si>
-  <si>
-    <t>Configure acknowledgement template for failed/erroneous pre-registration</t>
-  </si>
-  <si>
-    <t>Configure pdf template for Successful pre-registration</t>
-  </si>
-  <si>
-    <t>Configure template for SMS notification for successful pre-registration (In all supported languages)</t>
-  </si>
-  <si>
-    <t>Configure template for Email notification for successful pre-registration (In all supported languages)</t>
-  </si>
-  <si>
-    <t>EC Setup: Select registration Centre Status</t>
-  </si>
-  <si>
-    <t>EC Setup: Configure number of workstations for a selected registration Centre</t>
-  </si>
-  <si>
-    <t>EC Setup: Configure timespan of each registration for a selected registration Centre</t>
-  </si>
-  <si>
-    <t>Start and End Time</t>
-  </si>
-  <si>
-    <t>Non-configurable - Default value to be aligned with Registration</t>
-  </si>
-  <si>
-    <t>Non-configurable - Default value to be aligned with Pre-Registration</t>
-  </si>
-  <si>
-    <t>Upper limit will be configurable</t>
+    <t>Virus Scanner IP</t>
+  </si>
+  <si>
+    <t>127.0.0.1</t>
+  </si>
+  <si>
+    <t>Virus Scanner Port</t>
+  </si>
+  <si>
+    <t>Configure SMS Template  for notification to be triggered for UIN issued for UIN issuance</t>
+  </si>
+  <si>
+    <t>Configure Email Template  for notification to be triggered for UIN issued for UIN issuance</t>
+  </si>
+  <si>
+    <t>Configure SMS Template  for notification to be triggered for UIN issued for UIN rejection</t>
+  </si>
+  <si>
+    <t>Configure Email Template  for notification to be triggered for UIN issued for UIN rejection</t>
+  </si>
+  <si>
+    <t>Configure SMS Template for notification to be triggered child turning 5/15/18 etc</t>
+  </si>
+  <si>
+    <t>Configure Email Template for notification to be triggered child turning 5/15/18 etc</t>
+  </si>
+  <si>
+    <t>Configure SMS Template for notification to be triggered for automated de-activation</t>
+  </si>
+  <si>
+    <t>Configure Email Template for notification to be triggered for automated de-activation</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Configurations: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Bookman Old Style"/>
+        <family val="1"/>
+      </rPr>
+      <t>ID-Authentication</t>
+    </r>
+  </si>
+  <si>
+    <t>Setup TSP KYC Preferences</t>
+  </si>
+  <si>
+    <t>Full KYC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;Select Full or Limited KYC
+&gt;For Full KYC
+-Select Demo fields from Country's ID Definition
+-Select field(s) from ID types UIN, Masked UIN, Token ID
+&gt;For Limited KYC
+- Select subset of Demo fields from ID Definition, 
+-Select field(s)of UIN, Masked UIN, Token ID
+</t>
+  </si>
+  <si>
+    <t>Setup permissable Resident Modes of Authentication for a TSP</t>
+  </si>
+  <si>
+    <t>OTP
+Biometrics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Demographic
+Static PIN</t>
+  </si>
+  <si>
+    <t>Setup Authentication Data Retention Parameters (X days/X no of requests)</t>
+  </si>
+  <si>
+    <t>Days</t>
+  </si>
+  <si>
+    <t>Requests</t>
+  </si>
+  <si>
+    <t>Setup Authentication Data Retention Period/Days</t>
+  </si>
+  <si>
+    <t>2-5 years</t>
+  </si>
+  <si>
+    <t>Setup Authentication Data Retention Requests</t>
+  </si>
+  <si>
+    <t>650 million</t>
+  </si>
+  <si>
+    <t>100-1000 million</t>
+  </si>
+  <si>
+    <t>Setup Audit Authentication Data Retention parameters (Y days/Y no of Requests)</t>
+  </si>
+  <si>
+    <t>Setup Audit Authentication Data Retention Period/Days</t>
+  </si>
+  <si>
+    <t>Setup Audit Authentication Data Retention Requests</t>
+  </si>
+  <si>
+    <t>650 milliom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setup E-mail Template for Successful Authentication </t>
+  </si>
+  <si>
+    <t>Setup E-mail Template for Authentication Failure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setup SMS Template for Successful Authentication </t>
+  </si>
+  <si>
+    <t>Setup SMS Template for Authentication Failure</t>
+  </si>
+  <si>
+    <t>Configure preference to turn on/off Tokenization for a Country,  as a process</t>
+  </si>
+  <si>
+    <t>ON</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set up  Authentication Quality Threshold for Fingerprints </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set up  Authentication Quality Threshold for IRIS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set up  Authentication Quality Threshold for Face/Photo </t>
+  </si>
+  <si>
+    <t>Configure SMS template for OTP generation for OTP Based Authentication</t>
+  </si>
+  <si>
+    <t>Configure e-mail template for OTP generation for OTP Based Authentication</t>
+  </si>
+  <si>
+    <t>Configure preference to turn on/off Phonetics Match for a Country, as a process</t>
+  </si>
+  <si>
+    <t>Configure authentications permissable for e-KYC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OTP, Biometrics
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Static Pin</t>
+  </si>
+  <si>
+    <t>Configure desirable mode (SMS/e-mail ) for auth responses and OTP notification for a country</t>
+  </si>
+  <si>
+    <t>both</t>
+  </si>
+  <si>
+    <t>SMS only. E-mail only</t>
+  </si>
+  <si>
+    <t>Configure N time period threshold for accepting auth request for a country</t>
+  </si>
+  <si>
+    <t>1-24 hrs</t>
+  </si>
+  <si>
+    <t>OK - Aadhaar has 24hrs as the defined threshold</t>
   </si>
   <si>
     <t>Setup PDF template for limited e-KYC</t>
   </si>
   <si>
     <t>Setup PDF template for Full e-KYC</t>
+  </si>
+  <si>
+    <t>Setup time zone for a country/state</t>
+  </si>
+  <si>
+    <t>UTC</t>
+  </si>
+  <si>
+    <t>UTC+1, UTC+5.30</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Configurations: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Bookman Old Style"/>
+        <family val="1"/>
+      </rPr>
+      <t>Resident Services</t>
+    </r>
+  </si>
+  <si>
+    <t>Set up one PDF generation template for download UIN 
+- Includes selection of parameters to be displayed (UIN/QR Code/Digital Sign)
+- In two languages: 1.Default language and 2.Language of registration)</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>Set up one PDF generation template to retrieve lost UIN
+- Includes selection of parameters to be displayed (UIN/QR Code/Digital Sign)
+- In two languages: 1.Default language and 2.Language of registration)</t>
+  </si>
+  <si>
+    <t>Password protection required for the generated UIN PDF</t>
+  </si>
+  <si>
+    <t>This is not a config. MOSIP will implement UIN download with password protected PDF</t>
+  </si>
+  <si>
+    <t>Setup type of password for UIN PDF</t>
+  </si>
+  <si>
+    <t>Postal Code</t>
+  </si>
+  <si>
+    <t>This is not a config. MOSIP will implement UIN download with Postal Code as a password protected PDF</t>
+  </si>
+  <si>
+    <t>Set up template for display of VID on portal - Virtual ID generation</t>
+  </si>
+  <si>
+    <t>Set up SMS template for static pin generation</t>
+  </si>
+  <si>
+    <t>Set up Email template for static pin generation</t>
+  </si>
+  <si>
+    <t>Set up SMS template for virtual ID generation</t>
+  </si>
+  <si>
+    <t>Set up Email template for virtual ID generation</t>
+  </si>
+  <si>
+    <t>Others to be added</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1533,6 +1547,12 @@
     <xf numFmtId="16" fontId="3" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1547,12 +1567,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2078,7 +2092,6 @@
         <vertAlign val="baseline"/>
         <sz val="10"/>
         <name val="Bookman Old Style"/>
-        <family val="1"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -2115,7 +2128,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Bookman Old Style"/>
-        <family val="1"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -2147,7 +2159,6 @@
         <vertAlign val="baseline"/>
         <sz val="10"/>
         <name val="Bookman Old Style"/>
-        <family val="1"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -2181,7 +2192,6 @@
         <vertAlign val="baseline"/>
         <sz val="10"/>
         <name val="Bookman Old Style"/>
-        <family val="1"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -2215,7 +2225,6 @@
         <vertAlign val="baseline"/>
         <sz val="10"/>
         <name val="Bookman Old Style"/>
-        <family val="1"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -2254,7 +2263,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <name val="Bookman Old Style"/>
-        <family val="1"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -2288,7 +2296,6 @@
         <vertAlign val="baseline"/>
         <sz val="10"/>
         <name val="Bookman Old Style"/>
-        <family val="1"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -2319,6 +2326,13 @@
       </border>
     </dxf>
     <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2343,7 +2357,6 @@
         <vertAlign val="baseline"/>
         <sz val="10"/>
         <name val="Bookman Old Style"/>
-        <family val="1"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -2353,13 +2366,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -2611,7 +2617,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="36"/>
       <tableStyleElement type="headerRow" dxfId="35"/>
     </tableStyle>
@@ -2628,60 +2634,60 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="B2:F9" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
-  <autoFilter ref="B2:F9" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B2:F9" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
+  <autoFilter ref="B2:F9"/>
   <tableColumns count="5">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Configuration Feature" dataDxfId="32"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Type of Config" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Default Value" dataDxfId="30"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Other Values" dataDxfId="29"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Mindtree Comments" dataDxfId="28"/>
+    <tableColumn id="2" name="Configuration Feature" dataDxfId="32"/>
+    <tableColumn id="1" name="Type of Config" dataDxfId="31"/>
+    <tableColumn id="3" name="Default Value" dataDxfId="30"/>
+    <tableColumn id="4" name="Other Values" dataDxfId="29"/>
+    <tableColumn id="5" name="Mindtree Comments" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table22" displayName="Table22" ref="A2:G27" totalsRowShown="0" headerRowDxfId="27" dataDxfId="25" headerRowBorderDxfId="26" tableBorderDxfId="24" totalsRowBorderDxfId="23">
-  <autoFilter ref="A2:G27" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table22" displayName="Table22" ref="A2:G27" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26" headerRowBorderDxfId="24" tableBorderDxfId="25" totalsRowBorderDxfId="23">
+  <autoFilter ref="A2:G27"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="S.No" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Configuration Feature" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Type of Config" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Default Value" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="All Values" dataDxfId="18"/>
-    <tableColumn id="7" xr3:uid="{8EA7C0B7-AB3A-4B5B-9EE7-FA9069805E3E}" name="Mindtree Comments" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Customer Comments" dataDxfId="16"/>
+    <tableColumn id="1" name="S.No" dataDxfId="22"/>
+    <tableColumn id="2" name="Configuration Feature" dataDxfId="21"/>
+    <tableColumn id="3" name="Type of Config" dataDxfId="20"/>
+    <tableColumn id="4" name="Default Value" dataDxfId="19"/>
+    <tableColumn id="5" name="All Values" dataDxfId="18"/>
+    <tableColumn id="7" name="Mindtree Comments" dataDxfId="17"/>
+    <tableColumn id="6" name="Customer Comments" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table224" displayName="Table224" ref="A2:E41" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
-  <autoFilter ref="A2:E41" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table224" displayName="Table224" ref="A2:E41" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="A2:E41"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="S.No" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Configuration Feature" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Type of Config" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Default Value" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Other Values" dataDxfId="9"/>
+    <tableColumn id="1" name="S.No" dataDxfId="13"/>
+    <tableColumn id="2" name="Configuration Feature" dataDxfId="12"/>
+    <tableColumn id="4" name="Type of Config" dataDxfId="11"/>
+    <tableColumn id="5" name="Default Value" dataDxfId="10"/>
+    <tableColumn id="6" name="Other Values" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table2245" displayName="Table2245" ref="A2:G35" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A2:G35" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table2245" displayName="Table2245" ref="A2:G35" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A2:G35"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="S.No" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Configuration Feature" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Type of Config" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Default Value" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Other Values" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Mindtree Comments" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{6F20FCA4-4C7C-41FD-AB5F-5946F26D4313}" name="Customer Comments" dataDxfId="0"/>
+    <tableColumn id="1" name="S.No" dataDxfId="6"/>
+    <tableColumn id="2" name="Configuration Feature" dataDxfId="5"/>
+    <tableColumn id="4" name="Type of Config" dataDxfId="4"/>
+    <tableColumn id="5" name="Default Value" dataDxfId="3"/>
+    <tableColumn id="6" name="Other Values" dataDxfId="2"/>
+    <tableColumn id="3" name="Mindtree Comments" dataDxfId="1"/>
+    <tableColumn id="7" name="Customer Comments" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2949,17 +2955,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.85546875" style="14" customWidth="1"/>
     <col min="2" max="2" width="69" style="31" customWidth="1"/>
@@ -2971,19 +2977,19 @@
     <col min="8" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+    <row r="1" spans="1:26">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
       <c r="H1" s="31"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26">
       <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
@@ -3000,27 +3006,27 @@
         <v>5</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>240</v>
+        <v>6</v>
       </c>
       <c r="G2" s="26" t="s">
-        <v>241</v>
+        <v>7</v>
       </c>
       <c r="H2" s="31"/>
     </row>
-    <row r="3" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" s="29" customFormat="1">
       <c r="A3" s="28">
         <v>1</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
       <c r="F3" s="12" t="s">
-        <v>228</v>
+        <v>10</v>
       </c>
       <c r="G3" s="12"/>
       <c r="H3" s="31"/>
@@ -3043,22 +3049,22 @@
       <c r="Y3" s="7"/>
       <c r="Z3" s="7"/>
     </row>
-    <row r="4" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" s="29" customFormat="1">
       <c r="A4" s="8">
         <v>2</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="12" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G4" s="12"/>
       <c r="H4" s="31"/>
@@ -3081,22 +3087,22 @@
       <c r="Y4" s="7"/>
       <c r="Z4" s="7"/>
     </row>
-    <row r="5" spans="1:26" s="29" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" s="29" customFormat="1" ht="30">
       <c r="A5" s="28">
         <v>3</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D5" s="11">
         <v>3</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="12" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="31"/>
@@ -3119,22 +3125,22 @@
       <c r="Y5" s="7"/>
       <c r="Z5" s="7"/>
     </row>
-    <row r="6" spans="1:26" s="29" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" s="29" customFormat="1" ht="30">
       <c r="A6" s="8">
         <v>4</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="12" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G6" s="12"/>
       <c r="H6" s="31"/>
@@ -3157,22 +3163,22 @@
       <c r="Y6" s="7"/>
       <c r="Z6" s="7"/>
     </row>
-    <row r="7" spans="1:26" s="29" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" s="29" customFormat="1" ht="90">
       <c r="A7" s="28">
         <v>5</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D7" s="11">
         <v>12</v>
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="9" t="s">
-        <v>227</v>
+        <v>18</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="31"/>
@@ -3195,22 +3201,22 @@
       <c r="Y7" s="7"/>
       <c r="Z7" s="7"/>
     </row>
-    <row r="8" spans="1:26" s="29" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" s="29" customFormat="1" ht="90">
       <c r="A8" s="8">
         <v>6</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D8" s="11">
         <v>16</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="9" t="s">
-        <v>227</v>
+        <v>18</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="31"/>
@@ -3233,22 +3239,22 @@
       <c r="Y8" s="7"/>
       <c r="Z8" s="7"/>
     </row>
-    <row r="9" spans="1:26" s="29" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" s="29" customFormat="1" ht="90">
       <c r="A9" s="28">
         <v>7</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D9" s="11">
         <v>14</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="9" t="s">
-        <v>227</v>
+        <v>18</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="31"/>
@@ -3271,189 +3277,189 @@
       <c r="Y9" s="7"/>
       <c r="Z9" s="7"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26">
       <c r="A10" s="8">
         <v>8</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D10" s="37"/>
       <c r="E10" s="37"/>
       <c r="F10" s="37" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G10" s="37"/>
       <c r="H10" s="31"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26">
       <c r="A11" s="28">
         <v>9</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D11" s="37"/>
       <c r="E11" s="37"/>
       <c r="F11" s="37" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G11" s="37"/>
       <c r="H11" s="31"/>
     </row>
-    <row r="12" spans="1:26" ht="90" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" ht="90">
       <c r="A12" s="8">
         <v>10</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D12" s="37">
         <v>36</v>
       </c>
       <c r="E12" s="37"/>
       <c r="F12" s="9" t="s">
-        <v>227</v>
+        <v>18</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="31"/>
     </row>
-    <row r="13" spans="1:26" ht="90" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" ht="90">
       <c r="A13" s="28">
         <v>11</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D13" s="37"/>
       <c r="E13" s="37"/>
       <c r="F13" s="9" t="s">
-        <v>227</v>
+        <v>18</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="31"/>
     </row>
-    <row r="14" spans="1:26" ht="90" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="90">
       <c r="A14" s="8">
         <v>12</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D14" s="37">
         <v>8</v>
       </c>
       <c r="E14" s="37"/>
       <c r="F14" s="9" t="s">
-        <v>227</v>
+        <v>18</v>
       </c>
       <c r="G14" s="9"/>
     </row>
-    <row r="15" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" ht="30">
       <c r="A15" s="28">
         <v>13</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D15" s="54" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E15" s="37"/>
       <c r="F15" s="12" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G15" s="12"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26">
       <c r="A16" s="8">
         <v>14</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C16" s="37" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D16" s="37"/>
       <c r="E16" s="37"/>
       <c r="F16" s="37" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G16" s="37"/>
     </row>
-    <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="45">
       <c r="A17" s="28">
         <v>15</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D17" s="34" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E17" s="37"/>
       <c r="F17" s="45" t="s">
-        <v>231</v>
+        <v>32</v>
       </c>
       <c r="G17" s="45"/>
     </row>
-    <row r="18" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="90">
       <c r="A18" s="8">
         <v>16</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C18" s="37" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D18" s="37"/>
       <c r="E18" s="37"/>
       <c r="F18" s="34" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G18" s="34"/>
     </row>
-    <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="45">
       <c r="A19" s="28">
         <v>17</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C19" s="37" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D19" s="37"/>
       <c r="E19" s="37"/>
       <c r="F19" s="34" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G19" s="34"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="33"/>
       <c r="B20" s="34"/>
       <c r="C20" s="37"/>
@@ -3475,7 +3481,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3483,7 +3489,7 @@
       <selection pane="bottomLeft" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="72" style="1" customWidth="1"/>
@@ -3494,18 +3500,18 @@
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="69" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A1" s="71" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
@@ -3519,477 +3525,477 @@
         <v>4</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F2" s="41" t="s">
-        <v>240</v>
+        <v>6</v>
       </c>
       <c r="G2" s="41" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="16" customFormat="1" ht="30">
       <c r="A3" s="20">
         <v>1</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>249</v>
+        <v>39</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F3" s="40" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G3" s="40"/>
     </row>
-    <row r="4" spans="1:7" s="16" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="16" customFormat="1" ht="90">
       <c r="A4" s="20">
         <v>2</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>250</v>
+        <v>42</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="40" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G4" s="40"/>
     </row>
-    <row r="5" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" s="16" customFormat="1">
       <c r="A5" s="20">
         <v>3</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>242</v>
+        <v>47</v>
       </c>
       <c r="F5" s="40" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G5" s="40"/>
     </row>
-    <row r="6" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="16" customFormat="1">
       <c r="A6" s="20">
         <v>4</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>242</v>
+        <v>47</v>
       </c>
       <c r="F6" s="40" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G6" s="40"/>
     </row>
-    <row r="7" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="16" customFormat="1">
       <c r="A7" s="20">
         <v>5</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>243</v>
+        <v>50</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>51</v>
       </c>
       <c r="F7" s="40" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G7" s="40"/>
     </row>
-    <row r="8" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="16" customFormat="1">
       <c r="A8" s="20">
         <v>6</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>243</v>
+        <v>50</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>51</v>
       </c>
       <c r="F8" s="40" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G8" s="40"/>
     </row>
-    <row r="9" spans="1:7" s="16" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" s="16" customFormat="1" ht="120">
       <c r="A9" s="20">
         <v>7</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>247</v>
+        <v>54</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="40" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G9" s="40"/>
     </row>
-    <row r="10" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="16" customFormat="1">
       <c r="A10" s="20">
         <v>8</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
       <c r="F10" s="40" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G10" s="40"/>
     </row>
-    <row r="11" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="16" customFormat="1">
       <c r="A11" s="20">
         <v>9</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>251</v>
+        <v>57</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
       <c r="F11" s="40" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G11" s="40"/>
     </row>
-    <row r="12" spans="1:7" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="16" customFormat="1" ht="30">
       <c r="A12" s="20">
         <v>10</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>252</v>
+        <v>58</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
       <c r="F12" s="40" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G12" s="40"/>
     </row>
-    <row r="13" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="16" customFormat="1">
       <c r="A13" s="20">
         <v>11</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>253</v>
+        <v>59</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="40" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G13" s="40"/>
     </row>
-    <row r="14" spans="1:7" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" s="16" customFormat="1" ht="30">
       <c r="A14" s="20">
         <v>12</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>254</v>
+        <v>60</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="40" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G14" s="40"/>
     </row>
-    <row r="15" spans="1:7" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" s="16" customFormat="1" ht="30">
       <c r="A15" s="20">
         <v>13</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>255</v>
+        <v>61</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="40" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G15" s="40"/>
     </row>
-    <row r="16" spans="1:7" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" s="16" customFormat="1" ht="30">
       <c r="A16" s="20">
         <v>14</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
       <c r="F16" s="40" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G16" s="40"/>
     </row>
-    <row r="17" spans="1:7" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" s="16" customFormat="1" ht="30">
       <c r="A17" s="20">
         <v>15</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
       <c r="F17" s="40" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G17" s="40"/>
     </row>
-    <row r="18" spans="1:7" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" s="16" customFormat="1" ht="30">
       <c r="A18" s="20">
         <v>16</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="40" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G18" s="40"/>
     </row>
-    <row r="19" spans="1:7" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" s="16" customFormat="1" ht="30">
       <c r="A19" s="20">
         <v>17</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D19" s="39" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="E19" s="66" t="s">
-        <v>262</v>
+        <v>67</v>
       </c>
       <c r="F19" s="40" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G19" s="40"/>
     </row>
-    <row r="20" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" s="16" customFormat="1">
       <c r="A20" s="20">
         <v>18</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>256</v>
+        <v>68</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="40" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G20" s="40"/>
     </row>
-    <row r="21" spans="1:7" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" s="16" customFormat="1" ht="30">
       <c r="A21" s="20">
         <v>19</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>257</v>
+        <v>69</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
       <c r="F21" s="40" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G21" s="40"/>
     </row>
-    <row r="22" spans="1:7" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" s="16" customFormat="1" ht="30">
       <c r="A22" s="20">
         <v>20</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>258</v>
+        <v>70</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>244</v>
+        <v>71</v>
       </c>
       <c r="E22" s="12"/>
       <c r="F22" s="40" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G22" s="40"/>
     </row>
-    <row r="23" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" s="16" customFormat="1">
       <c r="A23" s="20">
         <v>21</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>248</v>
+        <v>72</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>259</v>
+        <v>73</v>
       </c>
       <c r="E23" s="12"/>
       <c r="F23" s="40" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G23" s="40"/>
     </row>
-    <row r="24" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="27" customHeight="1">
       <c r="A24" s="20">
         <v>22</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="40" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G24" s="40"/>
     </row>
-    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="45">
       <c r="A25" s="20">
         <v>23</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>208</v>
+        <v>76</v>
       </c>
       <c r="E25" s="12"/>
       <c r="F25" s="40" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G25" s="40"/>
     </row>
-    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="30">
       <c r="A26" s="20">
         <v>24</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
       <c r="F26" s="40" t="s">
-        <v>260</v>
+        <v>78</v>
       </c>
       <c r="G26" s="40"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" s="20">
         <v>25</v>
       </c>
       <c r="B27" s="63" t="s">
-        <v>245</v>
+        <v>79</v>
       </c>
       <c r="C27" s="64" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D27" s="64" t="s">
-        <v>246</v>
+        <v>80</v>
       </c>
       <c r="E27" s="64"/>
       <c r="F27" s="65"/>
       <c r="G27" s="65"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" s="17" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="B28" s="3"/>
     </row>
@@ -4006,7 +4012,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -4014,7 +4020,7 @@
       <selection pane="bottomLeft" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="14" customWidth="1"/>
     <col min="2" max="2" width="62" style="7" customWidth="1"/>
@@ -4024,18 +4030,18 @@
     <col min="8" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="69" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="71"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A1" s="71" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="73"/>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -4052,697 +4058,697 @@
         <v>5</v>
       </c>
       <c r="F2" s="62" t="s">
-        <v>240</v>
+        <v>6</v>
       </c>
       <c r="G2" s="62" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30">
       <c r="A3" s="8">
         <v>1</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="C3" s="44" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="9" t="s">
-        <v>232</v>
+        <v>85</v>
       </c>
       <c r="G3" s="9"/>
     </row>
-    <row r="4" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="90">
       <c r="A4" s="8">
         <v>2</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="G4" s="9"/>
     </row>
-    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="45">
       <c r="A5" s="8">
         <v>3</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G5" s="12"/>
     </row>
-    <row r="6" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="135">
       <c r="A6" s="8">
         <v>4</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
       <c r="F6" s="9" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G6" s="9"/>
     </row>
-    <row r="7" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="75">
       <c r="A7" s="8">
         <v>5</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
       <c r="F7" s="9" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="90">
       <c r="A8" s="8">
         <v>6</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="C8" s="44" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D8" s="12">
         <v>80</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="G8" s="9"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="8">
         <v>7</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D9" s="12">
         <v>3</v>
       </c>
       <c r="E9" s="39" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="G9" s="9"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="8">
         <v>8</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="C10" s="44" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D10" s="12">
         <v>80</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G10" s="12"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="8">
         <v>9</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="C11" s="44" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D11" s="12">
         <v>3</v>
       </c>
       <c r="E11" s="39" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="8">
         <v>10</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="C12" s="44" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D12" s="12">
         <v>80</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G12" s="12"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="8">
         <v>11</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D13" s="12">
         <v>3</v>
       </c>
       <c r="E13" s="39" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G13" s="12"/>
     </row>
-    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="45">
       <c r="A14" s="8">
         <v>12</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>224</v>
+        <v>106</v>
       </c>
       <c r="C14" s="44" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>225</v>
+        <v>109</v>
       </c>
       <c r="G14" s="9"/>
     </row>
-    <row r="15" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="60">
       <c r="A15" s="8">
         <v>13</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="C15" s="44" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="8">
         <v>14</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="C16" s="44" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="9" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G16" s="9"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="8">
         <v>15</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="C17" s="44" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="9" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G17" s="9"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="8">
         <v>16</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="C18" s="44" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G18" s="12"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="8">
         <v>17</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="C19" s="44" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G19" s="12"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="8">
         <v>18</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="C20" s="44" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="12" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G20" s="12"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="8">
         <v>19</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="C21" s="44" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
       <c r="F21" s="12" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G21" s="12"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="8">
         <v>20</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="C22" s="44" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="12" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G22" s="12"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="8">
         <v>21</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="C23" s="44" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
       <c r="F23" s="12" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G23" s="12"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" s="8">
         <v>22</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="C24" s="44" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="12" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G24" s="12"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" s="8">
         <v>23</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="C25" s="44" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="12" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G25" s="12"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" s="8">
         <v>24</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="C26" s="44" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
       <c r="F26" s="12" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G26" s="12"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" s="8">
         <v>25</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="C27" s="44" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="12" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G27" s="12"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" s="8">
         <v>26</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="C28" s="44" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="12" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G28" s="12"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" s="8">
         <v>27</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="C29" s="44" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
       <c r="F29" s="12" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G29" s="12"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" s="8">
         <v>28</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="C30" s="44" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="12" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G30" s="12"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" s="8">
         <v>29</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="C31" s="44" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
       <c r="F31" s="9" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G31" s="9"/>
     </row>
-    <row r="32" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="150">
       <c r="A32" s="8">
         <v>30</v>
       </c>
       <c r="B32" s="46" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="C32" s="44" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D32" s="13"/>
       <c r="E32" s="13"/>
       <c r="F32" s="9" t="s">
-        <v>233</v>
+        <v>132</v>
       </c>
       <c r="G32" s="9"/>
     </row>
-    <row r="33" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="105">
       <c r="A33" s="8">
         <v>31</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="C33" s="44" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>226</v>
+        <v>134</v>
       </c>
       <c r="E33" s="13"/>
       <c r="F33" s="9" t="s">
-        <v>234</v>
+        <v>135</v>
       </c>
       <c r="G33" s="9"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" s="8">
         <v>32</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="C34" s="44" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G34" s="9"/>
     </row>
-    <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="30">
       <c r="A35" s="8">
         <v>33</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="C35" s="44" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="E35" s="13"/>
       <c r="F35" s="9" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G35" s="9"/>
     </row>
-    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="30">
       <c r="A36" s="8">
         <v>34</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="C36" s="44" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D36" s="13">
         <v>100</v>
       </c>
       <c r="E36" s="13"/>
       <c r="F36" s="9" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G36" s="9"/>
     </row>
-    <row r="37" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="45">
       <c r="A37" s="8">
         <v>35</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="C37" s="44" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G37" s="9"/>
     </row>
-    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="30">
       <c r="A38" s="8">
         <v>36</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="C38" s="44" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D38" s="13">
         <v>10</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G38" s="9"/>
     </row>
-    <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="30">
       <c r="A39" s="8">
         <v>37</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="C39" s="44" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D39" s="13">
         <v>2</v>
@@ -4751,100 +4757,100 @@
         <v>1</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G39" s="9"/>
     </row>
-    <row r="40" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="75">
       <c r="A40" s="8">
         <v>38</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="C40" s="44" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D40" s="23"/>
       <c r="E40" s="23"/>
       <c r="F40" s="9" t="s">
-        <v>235</v>
+        <v>149</v>
       </c>
       <c r="G40" s="9"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="A41" s="8">
         <v>39</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="C41" s="47"/>
       <c r="D41" s="23" t="s">
-        <v>118</v>
+        <v>151</v>
       </c>
       <c r="E41" s="23"/>
       <c r="F41" s="9" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G41" s="9"/>
     </row>
-    <row r="42" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="60">
       <c r="A42" s="38">
         <v>40</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="C42" s="44" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D42" s="38" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="E42" s="38" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G42" s="9"/>
     </row>
-    <row r="43" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="60">
       <c r="A43" s="38">
         <v>41</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>121</v>
+        <v>154</v>
       </c>
       <c r="C43" s="44" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D43" s="38" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="E43" s="38" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G43" s="9"/>
     </row>
-    <row r="44" spans="1:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" s="1" customFormat="1" ht="30">
       <c r="A44" s="20">
         <v>42</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D44" s="12"/>
       <c r="E44" s="12"/>
       <c r="F44" s="40" t="s">
-        <v>261</v>
+        <v>155</v>
       </c>
       <c r="G44" s="40"/>
     </row>
@@ -4861,17 +4867,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="14"/>
     <col min="2" max="2" width="62" style="7" customWidth="1"/>
@@ -4881,18 +4887,18 @@
     <col min="8" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="69" t="s">
-        <v>122</v>
-      </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="71"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A1" s="71" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="73"/>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -4909,622 +4915,622 @@
         <v>5</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>240</v>
+        <v>6</v>
       </c>
       <c r="G2" s="61" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30">
       <c r="A3" s="38">
         <v>1</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>123</v>
+        <v>157</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>124</v>
+        <v>158</v>
       </c>
       <c r="E3" s="38"/>
       <c r="F3" s="10" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G3" s="55"/>
     </row>
-    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="45">
       <c r="A4" s="38">
         <v>2</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>125</v>
+        <v>159</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D4" s="38" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>126</v>
+        <v>160</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="75">
       <c r="A5" s="38">
         <v>3</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>127</v>
+        <v>161</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D5" s="38"/>
       <c r="E5" s="38"/>
       <c r="F5" s="10" t="s">
-        <v>128</v>
+        <v>162</v>
       </c>
       <c r="G5" s="22"/>
     </row>
-    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="30">
       <c r="A6" s="38">
         <v>4</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>129</v>
+        <v>163</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="E6" s="38" t="s">
-        <v>131</v>
+        <v>165</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G6" s="22"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="38">
         <v>5</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="E7" s="43" t="s">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G7" s="22"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="38">
         <v>6</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>135</v>
+        <v>169</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D8" s="38">
         <v>60</v>
       </c>
       <c r="E8" s="38" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G8" s="22"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="38">
         <v>7</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D9" s="38">
         <v>60</v>
       </c>
       <c r="E9" s="38" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G9" s="22"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="38">
         <v>8</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>137</v>
+        <v>171</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D10" s="38">
         <v>60</v>
       </c>
       <c r="E10" s="38" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G10" s="22"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="38">
         <v>9</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D11" s="38">
         <v>40</v>
       </c>
       <c r="E11" s="38" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G11" s="22"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="38">
         <v>10</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D12" s="38">
         <v>70</v>
       </c>
       <c r="E12" s="38" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G12" s="22"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="38">
         <v>11</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>140</v>
+        <v>174</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D13" s="38">
         <v>40</v>
       </c>
       <c r="E13" s="38" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G13" s="22"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="38">
         <v>12</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>141</v>
+        <v>175</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D14" s="38">
         <v>70</v>
       </c>
       <c r="E14" s="38" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G14" s="22"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="38">
         <v>13</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D15" s="38"/>
       <c r="E15" s="38"/>
       <c r="F15" s="10" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G15" s="22"/>
     </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="30">
       <c r="A16" s="38">
         <v>14</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>143</v>
+        <v>177</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="E16" s="38" t="s">
-        <v>131</v>
+        <v>165</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>237</v>
+        <v>178</v>
       </c>
       <c r="G16" s="22"/>
     </row>
-    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="30">
       <c r="A17" s="38">
         <v>15</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>144</v>
+        <v>179</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D17" s="38" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="E17" s="38" t="s">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>236</v>
+        <v>181</v>
       </c>
       <c r="G17" s="22"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="38">
         <v>16</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>146</v>
+        <v>182</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D18" s="38" t="s">
-        <v>147</v>
+        <v>183</v>
       </c>
       <c r="E18" s="38" t="s">
-        <v>147</v>
+        <v>183</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>236</v>
+        <v>181</v>
       </c>
       <c r="G18" s="22"/>
     </row>
-    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="30">
       <c r="A19" s="38">
         <v>17</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>148</v>
+        <v>184</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D19" s="38" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="E19" s="38" t="s">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>238</v>
+        <v>185</v>
       </c>
       <c r="G19" s="22"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="38">
         <v>18</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>149</v>
+        <v>186</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>150</v>
+        <v>187</v>
       </c>
       <c r="D20" s="38"/>
       <c r="E20" s="38"/>
       <c r="F20" s="10" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G20" s="22"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="38">
         <v>19</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>151</v>
+        <v>188</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>150</v>
+        <v>187</v>
       </c>
       <c r="D21" s="38" t="s">
-        <v>152</v>
+        <v>189</v>
       </c>
       <c r="E21" s="38"/>
       <c r="F21" s="10" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G21" s="22"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="38">
         <v>20</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>153</v>
+        <v>190</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D22" s="38"/>
       <c r="E22" s="38"/>
       <c r="F22" s="10" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G22" s="22"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="38">
         <v>21</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>154</v>
+        <v>191</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>150</v>
+        <v>187</v>
       </c>
       <c r="D23" s="38"/>
       <c r="E23" s="38"/>
       <c r="F23" s="10" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G23" s="22"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" s="38">
         <v>22</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>155</v>
+        <v>192</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>150</v>
+        <v>187</v>
       </c>
       <c r="D24" s="38" t="s">
-        <v>152</v>
+        <v>189</v>
       </c>
       <c r="E24" s="38"/>
       <c r="F24" s="10" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G24" s="22"/>
     </row>
-    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="45">
       <c r="A25" s="38">
         <v>23</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>156</v>
+        <v>193</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D25" s="38" t="s">
-        <v>157</v>
+        <v>194</v>
       </c>
       <c r="E25" s="38"/>
       <c r="F25" s="10" t="s">
-        <v>239</v>
+        <v>195</v>
       </c>
       <c r="G25" s="22"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" s="38">
         <v>24</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>158</v>
+        <v>196</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D26" s="38" t="s">
-        <v>159</v>
+        <v>197</v>
       </c>
       <c r="E26" s="38"/>
       <c r="F26" s="10" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G26" s="22"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" s="38">
         <v>25</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>160</v>
+        <v>198</v>
       </c>
       <c r="C27" s="38" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D27" s="38">
         <v>3310</v>
       </c>
       <c r="E27" s="38"/>
       <c r="F27" s="10" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G27" s="22"/>
     </row>
-    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="30">
       <c r="A28" s="38">
         <v>26</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>161</v>
+        <v>199</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
       <c r="E28" s="52"/>
       <c r="F28" s="10" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G28" s="22"/>
     </row>
-    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="30">
       <c r="A29" s="38">
         <v>27</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>162</v>
+        <v>200</v>
       </c>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
       <c r="E29" s="52"/>
       <c r="F29" s="10" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G29" s="22"/>
     </row>
-    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="30">
       <c r="A30" s="38">
         <v>28</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>163</v>
+        <v>201</v>
       </c>
       <c r="C30" s="23"/>
       <c r="D30" s="23"/>
       <c r="E30" s="53"/>
       <c r="F30" s="10" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G30" s="22"/>
     </row>
-    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="30">
       <c r="A31" s="38">
         <v>29</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>164</v>
+        <v>202</v>
       </c>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
       <c r="E31" s="52"/>
       <c r="F31" s="10" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G31" s="22"/>
     </row>
-    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="30">
       <c r="A32" s="38">
         <v>30</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>165</v>
+        <v>203</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
       <c r="E32" s="52"/>
       <c r="F32" s="10" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G32" s="22"/>
     </row>
-    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="30">
       <c r="A33" s="38">
         <v>31</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>166</v>
+        <v>204</v>
       </c>
       <c r="C33" s="13"/>
       <c r="D33" s="13"/>
       <c r="E33" s="52"/>
       <c r="F33" s="10" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G33" s="22"/>
     </row>
-    <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="30">
       <c r="A34" s="38">
         <v>32</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>167</v>
+        <v>205</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
       <c r="E34" s="52"/>
       <c r="F34" s="10" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G34" s="22"/>
     </row>
-    <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="30">
       <c r="A35" s="38">
         <v>33</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>168</v>
+        <v>206</v>
       </c>
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
       <c r="E35" s="52"/>
       <c r="F35" s="10" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G35" s="56"/>
     </row>
@@ -5541,17 +5547,17 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.85546875" style="14" customWidth="1"/>
     <col min="2" max="2" width="72" style="7" customWidth="1"/>
@@ -5563,18 +5569,18 @@
     <col min="8" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="69" t="s">
-        <v>169</v>
-      </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="71"/>
-    </row>
-    <row r="2" spans="1:7" s="32" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A1" s="71" t="s">
+        <v>207</v>
+      </c>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="73"/>
+    </row>
+    <row r="2" spans="1:7" s="32" customFormat="1" ht="12.75">
       <c r="A2" s="57" t="s">
         <v>1</v>
       </c>
@@ -5591,471 +5597,490 @@
         <v>5</v>
       </c>
       <c r="F2" s="59" t="s">
-        <v>240</v>
+        <v>6</v>
       </c>
       <c r="G2" s="60" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="225">
       <c r="A3" s="33">
         <v>1</v>
       </c>
-      <c r="B3" s="72" t="s">
-        <v>170</v>
+      <c r="B3" s="67" t="s">
+        <v>208</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D3" s="49" t="s">
-        <v>171</v>
+        <v>209</v>
       </c>
       <c r="E3" s="50" t="s">
-        <v>172</v>
+        <v>210</v>
       </c>
       <c r="F3" s="34" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G3" s="34"/>
     </row>
-    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="45">
       <c r="A4" s="33">
         <v>2</v>
       </c>
-      <c r="B4" s="72" t="s">
-        <v>173</v>
+      <c r="B4" s="67" t="s">
+        <v>211</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D4" s="50" t="s">
-        <v>174</v>
+        <v>212</v>
       </c>
       <c r="E4" s="50" t="s">
-        <v>175</v>
+        <v>213</v>
       </c>
       <c r="F4" s="34" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G4" s="37"/>
     </row>
-    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="30">
       <c r="A5" s="33">
         <v>3</v>
       </c>
-      <c r="B5" s="72" t="s">
-        <v>176</v>
+      <c r="B5" s="67" t="s">
+        <v>214</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D5" s="49" t="s">
-        <v>177</v>
+        <v>215</v>
       </c>
       <c r="E5" s="49" t="s">
-        <v>178</v>
+        <v>216</v>
       </c>
       <c r="F5" s="34" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G5" s="37"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="33">
         <v>4</v>
       </c>
-      <c r="B6" s="72" t="s">
-        <v>179</v>
+      <c r="B6" s="67" t="s">
+        <v>217</v>
       </c>
       <c r="C6" s="35"/>
       <c r="D6" s="51" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E6" s="51" t="s">
-        <v>180</v>
+        <v>218</v>
       </c>
       <c r="F6" s="34" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G6" s="37"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="33">
         <v>5</v>
       </c>
-      <c r="B7" s="72" t="s">
-        <v>181</v>
+      <c r="B7" s="67" t="s">
+        <v>219</v>
       </c>
       <c r="C7" s="35"/>
       <c r="D7" s="51" t="s">
-        <v>182</v>
+        <v>220</v>
       </c>
       <c r="E7" s="51" t="s">
-        <v>183</v>
+        <v>221</v>
       </c>
       <c r="F7" s="34" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G7" s="37"/>
     </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="30">
       <c r="A8" s="33">
         <v>6</v>
       </c>
-      <c r="B8" s="72" t="s">
-        <v>184</v>
+      <c r="B8" s="67" t="s">
+        <v>222</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D8" s="49" t="s">
-        <v>177</v>
+        <v>215</v>
       </c>
       <c r="E8" s="49" t="s">
-        <v>178</v>
+        <v>216</v>
       </c>
       <c r="F8" s="34" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G8" s="37"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="33">
         <v>7</v>
       </c>
-      <c r="B9" s="72" t="s">
-        <v>185</v>
+      <c r="B9" s="67" t="s">
+        <v>223</v>
       </c>
       <c r="C9" s="35"/>
       <c r="D9" s="51" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E9" s="51" t="s">
-        <v>180</v>
+        <v>218</v>
       </c>
       <c r="F9" s="34" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G9" s="37"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="33">
         <v>8</v>
       </c>
-      <c r="B10" s="72" t="s">
-        <v>186</v>
+      <c r="B10" s="67" t="s">
+        <v>224</v>
       </c>
       <c r="C10" s="35"/>
       <c r="D10" s="51" t="s">
-        <v>187</v>
+        <v>225</v>
       </c>
       <c r="E10" s="51" t="s">
-        <v>183</v>
+        <v>221</v>
       </c>
       <c r="F10" s="34" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G10" s="37"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="33">
         <v>9</v>
       </c>
-      <c r="B11" s="72" t="s">
-        <v>188</v>
+      <c r="B11" s="67" t="s">
+        <v>226</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D11" s="49"/>
       <c r="E11" s="49"/>
       <c r="F11" s="34" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G11" s="37"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="33">
         <v>10</v>
       </c>
-      <c r="B12" s="72" t="s">
-        <v>189</v>
+      <c r="B12" s="67" t="s">
+        <v>227</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D12" s="49"/>
       <c r="E12" s="49"/>
       <c r="F12" s="34" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G12" s="37"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="33">
         <v>11</v>
       </c>
-      <c r="B13" s="72" t="s">
-        <v>190</v>
+      <c r="B13" s="67" t="s">
+        <v>228</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D13" s="49"/>
       <c r="E13" s="49"/>
       <c r="F13" s="34" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G13" s="37"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="33">
         <v>12</v>
       </c>
-      <c r="B14" s="72" t="s">
-        <v>191</v>
+      <c r="B14" s="67" t="s">
+        <v>229</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D14" s="49"/>
       <c r="E14" s="49"/>
       <c r="F14" s="34" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G14" s="37"/>
     </row>
-    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="30">
       <c r="A15" s="33">
         <v>13</v>
       </c>
-      <c r="B15" s="72" t="s">
-        <v>192</v>
+      <c r="B15" s="67" t="s">
+        <v>230</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D15" s="49" t="s">
-        <v>193</v>
+        <v>231</v>
       </c>
       <c r="E15" s="49" t="s">
-        <v>194</v>
+        <v>232</v>
       </c>
       <c r="F15" s="34" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G15" s="34"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="33">
         <v>14</v>
       </c>
-      <c r="B16" s="73" t="s">
-        <v>195</v>
+      <c r="B16" s="68" t="s">
+        <v>233</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D16" s="51">
         <v>60</v>
       </c>
       <c r="E16" s="49" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="F16" s="34" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G16" s="37"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="33">
         <v>15</v>
       </c>
-      <c r="B17" s="72" t="s">
-        <v>196</v>
+      <c r="B17" s="67" t="s">
+        <v>234</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D17" s="51">
         <v>60</v>
       </c>
       <c r="E17" s="49" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="F17" s="34" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G17" s="37"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="33">
         <v>16</v>
       </c>
-      <c r="B18" s="72" t="s">
-        <v>197</v>
+      <c r="B18" s="67" t="s">
+        <v>235</v>
       </c>
       <c r="C18" s="35" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D18" s="51">
         <v>60</v>
       </c>
       <c r="E18" s="49" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="F18" s="34" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G18" s="37"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="33">
         <v>17</v>
       </c>
-      <c r="B19" s="73" t="s">
-        <v>198</v>
+      <c r="B19" s="68" t="s">
+        <v>236</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D19" s="49"/>
       <c r="E19" s="49"/>
       <c r="F19" s="34" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G19" s="37"/>
     </row>
-    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="30">
       <c r="A20" s="33">
         <v>18</v>
       </c>
-      <c r="B20" s="72" t="s">
-        <v>199</v>
+      <c r="B20" s="67" t="s">
+        <v>237</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D20" s="49"/>
       <c r="E20" s="49"/>
       <c r="F20" s="34" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G20" s="37"/>
     </row>
-    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="30">
       <c r="A21" s="33">
         <v>19</v>
       </c>
-      <c r="B21" s="72" t="s">
-        <v>200</v>
+      <c r="B21" s="67" t="s">
+        <v>238</v>
       </c>
       <c r="C21" s="35" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D21" s="49" t="s">
-        <v>193</v>
+        <v>231</v>
       </c>
       <c r="E21" s="49" t="s">
-        <v>194</v>
+        <v>232</v>
       </c>
       <c r="F21" s="34" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G21" s="37"/>
     </row>
-    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="30">
       <c r="A22" s="33">
         <v>20</v>
       </c>
-      <c r="B22" s="72" t="s">
-        <v>201</v>
+      <c r="B22" s="67" t="s">
+        <v>239</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D22" s="50" t="s">
-        <v>202</v>
+        <v>240</v>
       </c>
       <c r="E22" s="49" t="s">
-        <v>203</v>
+        <v>241</v>
       </c>
       <c r="F22" s="34" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G22" s="37"/>
     </row>
-    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="30">
       <c r="A23" s="33">
         <v>21</v>
       </c>
-      <c r="B23" s="72" t="s">
-        <v>204</v>
+      <c r="B23" s="67" t="s">
+        <v>242</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D23" s="49" t="s">
-        <v>205</v>
+        <v>243</v>
       </c>
       <c r="E23" s="49" t="s">
-        <v>206</v>
+        <v>244</v>
       </c>
       <c r="F23" s="34" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G23" s="37"/>
     </row>
-    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="30">
       <c r="A24" s="33">
         <v>22</v>
       </c>
-      <c r="B24" s="72" t="s">
-        <v>207</v>
+      <c r="B24" s="67" t="s">
+        <v>245</v>
       </c>
       <c r="C24" s="35" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D24" s="49" t="s">
-        <v>208</v>
+        <v>76</v>
       </c>
       <c r="E24" s="49" t="s">
-        <v>209</v>
+        <v>246</v>
       </c>
       <c r="F24" s="34" t="s">
-        <v>210</v>
+        <v>247</v>
       </c>
       <c r="G24" s="37"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" s="33">
         <v>23</v>
       </c>
-      <c r="B25" s="72" t="s">
-        <v>263</v>
+      <c r="B25" s="67" t="s">
+        <v>248</v>
       </c>
       <c r="C25" s="35" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D25" s="49"/>
       <c r="E25" s="49"/>
       <c r="F25" s="34"/>
       <c r="G25" s="37"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" s="33">
         <v>24</v>
       </c>
-      <c r="B26" s="72" t="s">
-        <v>264</v>
+      <c r="B26" s="67" t="s">
+        <v>249</v>
       </c>
       <c r="C26" s="35" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D26" s="49"/>
       <c r="E26" s="49"/>
       <c r="F26" s="34"/>
       <c r="G26" s="37"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="33">
+        <v>25</v>
+      </c>
+      <c r="B27" s="37" t="s">
+        <v>250</v>
+      </c>
+      <c r="C27" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="49" t="s">
+        <v>251</v>
+      </c>
+      <c r="E27" s="49" t="s">
+        <v>252</v>
+      </c>
+      <c r="F27" s="34"/>
+      <c r="G27" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6067,14 +6092,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.85546875" style="14" customWidth="1"/>
     <col min="2" max="2" width="76.5703125" style="7" customWidth="1"/>
@@ -6085,18 +6110,18 @@
     <col min="8" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="69" t="s">
-        <v>211</v>
-      </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="71"/>
-    </row>
-    <row r="2" spans="1:7" s="32" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A1" s="71" t="s">
+        <v>253</v>
+      </c>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="73"/>
+    </row>
+    <row r="2" spans="1:7" s="32" customFormat="1" ht="12.75">
       <c r="A2" s="57" t="s">
         <v>1</v>
       </c>
@@ -6113,163 +6138,163 @@
         <v>5</v>
       </c>
       <c r="F2" s="60" t="s">
-        <v>240</v>
+        <v>6</v>
       </c>
       <c r="G2" s="60" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="45">
       <c r="A3" s="33">
         <v>1</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="C3" s="36"/>
       <c r="D3" s="37"/>
       <c r="E3" s="37"/>
       <c r="F3" s="37" t="s">
-        <v>212</v>
+        <v>255</v>
       </c>
       <c r="G3" s="37"/>
     </row>
-    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="45">
       <c r="A4" s="33">
         <v>2</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="C4" s="36"/>
       <c r="D4" s="37"/>
       <c r="E4" s="37"/>
       <c r="F4" s="37" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G4" s="37"/>
     </row>
-    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="45">
       <c r="A5" s="33">
         <v>3</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>213</v>
+        <v>257</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="F5" s="34" t="s">
-        <v>214</v>
+        <v>258</v>
       </c>
       <c r="G5" s="34"/>
     </row>
-    <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="60">
       <c r="A6" s="33">
         <v>4</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>215</v>
+        <v>259</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>216</v>
+        <v>260</v>
       </c>
       <c r="E6" s="34"/>
       <c r="F6" s="34" t="s">
-        <v>217</v>
+        <v>261</v>
       </c>
       <c r="G6" s="34"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="33">
         <v>5</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>218</v>
+        <v>262</v>
       </c>
       <c r="C7" s="35"/>
       <c r="D7" s="37"/>
       <c r="E7" s="37"/>
       <c r="F7" s="37" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G7" s="37"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="33">
         <v>6</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>219</v>
+        <v>263</v>
       </c>
       <c r="C8" s="35"/>
       <c r="D8" s="37"/>
       <c r="E8" s="37"/>
       <c r="F8" s="37" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G8" s="37"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="33">
         <v>7</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>220</v>
+        <v>264</v>
       </c>
       <c r="C9" s="35"/>
       <c r="D9" s="37"/>
       <c r="E9" s="37"/>
       <c r="F9" s="37" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G9" s="37"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="33">
         <v>8</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>221</v>
+        <v>265</v>
       </c>
       <c r="C10" s="35"/>
       <c r="D10" s="37"/>
       <c r="E10" s="37"/>
       <c r="F10" s="37" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G10" s="37"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="33">
         <v>9</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>222</v>
+        <v>266</v>
       </c>
       <c r="C11" s="35"/>
       <c r="D11" s="37"/>
       <c r="E11" s="37"/>
       <c r="F11" s="37" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G11" s="37"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="33">
         <v>10</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>223</v>
+        <v>267</v>
       </c>
       <c r="C12" s="36"/>
       <c r="D12" s="37"/>

--- a/requirements/MOSIP_Configurations_Consolidated List_Updated_12Oct18_CV.xlsx
+++ b/requirements/MOSIP_Configurations_Consolidated List_Updated_12Oct18_CV.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1A89B235-0E7A-4386-BF65-455FAB65AC7E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7065" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7065" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kernel" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="266">
   <si>
     <r>
       <t xml:space="preserve">Configurations: </t>
@@ -984,15 +985,6 @@
     <t>Setup PDF template for Full e-KYC</t>
   </si>
   <si>
-    <t>Setup time zone for a country/state</t>
-  </si>
-  <si>
-    <t>UTC</t>
-  </si>
-  <si>
-    <t>UTC+1, UTC+5.30</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Configurations: </t>
     </r>
@@ -1054,12 +1046,15 @@
   <si>
     <t>Others to be added</t>
   </si>
+  <si>
+    <t>Setup the Demographic data validity for a TSP</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2326,13 +2321,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2366,6 +2354,13 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -2617,7 +2612,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="36"/>
       <tableStyleElement type="headerRow" dxfId="35"/>
     </tableStyle>
@@ -2634,60 +2629,60 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B2:F9" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
-  <autoFilter ref="B2:F9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="B2:F9" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
+  <autoFilter ref="B2:F9" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
-    <tableColumn id="2" name="Configuration Feature" dataDxfId="32"/>
-    <tableColumn id="1" name="Type of Config" dataDxfId="31"/>
-    <tableColumn id="3" name="Default Value" dataDxfId="30"/>
-    <tableColumn id="4" name="Other Values" dataDxfId="29"/>
-    <tableColumn id="5" name="Mindtree Comments" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Configuration Feature" dataDxfId="32"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Type of Config" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Default Value" dataDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Other Values" dataDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Mindtree Comments" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table22" displayName="Table22" ref="A2:G27" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26" headerRowBorderDxfId="24" tableBorderDxfId="25" totalsRowBorderDxfId="23">
-  <autoFilter ref="A2:G27"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table22" displayName="Table22" ref="A2:G27" totalsRowShown="0" headerRowDxfId="27" dataDxfId="25" headerRowBorderDxfId="26" tableBorderDxfId="24" totalsRowBorderDxfId="23">
+  <autoFilter ref="A2:G27" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="S.No" dataDxfId="22"/>
-    <tableColumn id="2" name="Configuration Feature" dataDxfId="21"/>
-    <tableColumn id="3" name="Type of Config" dataDxfId="20"/>
-    <tableColumn id="4" name="Default Value" dataDxfId="19"/>
-    <tableColumn id="5" name="All Values" dataDxfId="18"/>
-    <tableColumn id="7" name="Mindtree Comments" dataDxfId="17"/>
-    <tableColumn id="6" name="Customer Comments" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="S.No" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Configuration Feature" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Type of Config" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Default Value" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="All Values" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Mindtree Comments" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Customer Comments" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table224" displayName="Table224" ref="A2:E41" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
-  <autoFilter ref="A2:E41"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table224" displayName="Table224" ref="A2:E41" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="A2:E41" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="S.No" dataDxfId="13"/>
-    <tableColumn id="2" name="Configuration Feature" dataDxfId="12"/>
-    <tableColumn id="4" name="Type of Config" dataDxfId="11"/>
-    <tableColumn id="5" name="Default Value" dataDxfId="10"/>
-    <tableColumn id="6" name="Other Values" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="S.No" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Configuration Feature" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Type of Config" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Default Value" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Other Values" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table2245" displayName="Table2245" ref="A2:G35" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A2:G35"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table2245" displayName="Table2245" ref="A2:G35" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A2:G35" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="S.No" dataDxfId="6"/>
-    <tableColumn id="2" name="Configuration Feature" dataDxfId="5"/>
-    <tableColumn id="4" name="Type of Config" dataDxfId="4"/>
-    <tableColumn id="5" name="Default Value" dataDxfId="3"/>
-    <tableColumn id="6" name="Other Values" dataDxfId="2"/>
-    <tableColumn id="3" name="Mindtree Comments" dataDxfId="1"/>
-    <tableColumn id="7" name="Customer Comments" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="S.No" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Configuration Feature" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Type of Config" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Default Value" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Other Values" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Mindtree Comments" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Customer Comments" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2955,17 +2950,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomRight" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.85546875" style="14" customWidth="1"/>
     <col min="2" max="2" width="69" style="31" customWidth="1"/>
@@ -2977,7 +2972,7 @@
     <col min="8" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
@@ -2989,7 +2984,7 @@
       <c r="G1" s="70"/>
       <c r="H1" s="31"/>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
@@ -3013,7 +3008,7 @@
       </c>
       <c r="H2" s="31"/>
     </row>
-    <row r="3" spans="1:26" s="29" customFormat="1">
+    <row r="3" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28">
         <v>1</v>
       </c>
@@ -3049,7 +3044,7 @@
       <c r="Y3" s="7"/>
       <c r="Z3" s="7"/>
     </row>
-    <row r="4" spans="1:26" s="29" customFormat="1">
+    <row r="4" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -3087,7 +3082,7 @@
       <c r="Y4" s="7"/>
       <c r="Z4" s="7"/>
     </row>
-    <row r="5" spans="1:26" s="29" customFormat="1" ht="30">
+    <row r="5" spans="1:26" s="29" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="28">
         <v>3</v>
       </c>
@@ -3125,7 +3120,7 @@
       <c r="Y5" s="7"/>
       <c r="Z5" s="7"/>
     </row>
-    <row r="6" spans="1:26" s="29" customFormat="1" ht="30">
+    <row r="6" spans="1:26" s="29" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>4</v>
       </c>
@@ -3163,7 +3158,7 @@
       <c r="Y6" s="7"/>
       <c r="Z6" s="7"/>
     </row>
-    <row r="7" spans="1:26" s="29" customFormat="1" ht="90">
+    <row r="7" spans="1:26" s="29" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="28">
         <v>5</v>
       </c>
@@ -3201,7 +3196,7 @@
       <c r="Y7" s="7"/>
       <c r="Z7" s="7"/>
     </row>
-    <row r="8" spans="1:26" s="29" customFormat="1" ht="90">
+    <row r="8" spans="1:26" s="29" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>6</v>
       </c>
@@ -3239,7 +3234,7 @@
       <c r="Y8" s="7"/>
       <c r="Z8" s="7"/>
     </row>
-    <row r="9" spans="1:26" s="29" customFormat="1" ht="90">
+    <row r="9" spans="1:26" s="29" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="28">
         <v>7</v>
       </c>
@@ -3277,7 +3272,7 @@
       <c r="Y9" s="7"/>
       <c r="Z9" s="7"/>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>8</v>
       </c>
@@ -3295,7 +3290,7 @@
       <c r="G10" s="37"/>
       <c r="H10" s="31"/>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="28">
         <v>9</v>
       </c>
@@ -3313,7 +3308,7 @@
       <c r="G11" s="37"/>
       <c r="H11" s="31"/>
     </row>
-    <row r="12" spans="1:26" ht="90">
+    <row r="12" spans="1:26" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>10</v>
       </c>
@@ -3333,7 +3328,7 @@
       <c r="G12" s="9"/>
       <c r="H12" s="31"/>
     </row>
-    <row r="13" spans="1:26" ht="90">
+    <row r="13" spans="1:26" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="28">
         <v>11</v>
       </c>
@@ -3351,7 +3346,7 @@
       <c r="G13" s="9"/>
       <c r="H13" s="31"/>
     </row>
-    <row r="14" spans="1:26" ht="90">
+    <row r="14" spans="1:26" ht="90" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>12</v>
       </c>
@@ -3370,7 +3365,7 @@
       </c>
       <c r="G14" s="9"/>
     </row>
-    <row r="15" spans="1:26" ht="30">
+    <row r="15" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="28">
         <v>13</v>
       </c>
@@ -3389,7 +3384,7 @@
       </c>
       <c r="G15" s="12"/>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>14</v>
       </c>
@@ -3406,7 +3401,7 @@
       </c>
       <c r="G16" s="37"/>
     </row>
-    <row r="17" spans="1:7" ht="45">
+    <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="28">
         <v>15</v>
       </c>
@@ -3425,7 +3420,7 @@
       </c>
       <c r="G17" s="45"/>
     </row>
-    <row r="18" spans="1:7" ht="90">
+    <row r="18" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>16</v>
       </c>
@@ -3442,7 +3437,7 @@
       </c>
       <c r="G18" s="34"/>
     </row>
-    <row r="19" spans="1:7" ht="45">
+    <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="28">
         <v>17</v>
       </c>
@@ -3459,7 +3454,7 @@
       </c>
       <c r="G19" s="34"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="33"/>
       <c r="B20" s="34"/>
       <c r="C20" s="37"/>
@@ -3481,7 +3476,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3489,7 +3484,7 @@
       <selection pane="bottomLeft" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="72" style="1" customWidth="1"/>
@@ -3500,7 +3495,7 @@
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="71" t="s">
         <v>37</v>
       </c>
@@ -3511,7 +3506,7 @@
       <c r="F1" s="72"/>
       <c r="G1" s="72"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
@@ -3534,7 +3529,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="16" customFormat="1" ht="30">
+    <row r="3" spans="1:7" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="20">
         <v>1</v>
       </c>
@@ -3555,7 +3550,7 @@
       </c>
       <c r="G3" s="40"/>
     </row>
-    <row r="4" spans="1:7" s="16" customFormat="1" ht="90">
+    <row r="4" spans="1:7" s="16" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="20">
         <v>2</v>
       </c>
@@ -3574,7 +3569,7 @@
       </c>
       <c r="G4" s="40"/>
     </row>
-    <row r="5" spans="1:7" s="16" customFormat="1">
+    <row r="5" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20">
         <v>3</v>
       </c>
@@ -3595,7 +3590,7 @@
       </c>
       <c r="G5" s="40"/>
     </row>
-    <row r="6" spans="1:7" s="16" customFormat="1">
+    <row r="6" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20">
         <v>4</v>
       </c>
@@ -3616,7 +3611,7 @@
       </c>
       <c r="G6" s="40"/>
     </row>
-    <row r="7" spans="1:7" s="16" customFormat="1">
+    <row r="7" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20">
         <v>5</v>
       </c>
@@ -3637,7 +3632,7 @@
       </c>
       <c r="G7" s="40"/>
     </row>
-    <row r="8" spans="1:7" s="16" customFormat="1">
+    <row r="8" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20">
         <v>6</v>
       </c>
@@ -3658,7 +3653,7 @@
       </c>
       <c r="G8" s="40"/>
     </row>
-    <row r="9" spans="1:7" s="16" customFormat="1" ht="120">
+    <row r="9" spans="1:7" s="16" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
         <v>7</v>
       </c>
@@ -3677,7 +3672,7 @@
       </c>
       <c r="G9" s="40"/>
     </row>
-    <row r="10" spans="1:7" s="16" customFormat="1">
+    <row r="10" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20">
         <v>8</v>
       </c>
@@ -3694,7 +3689,7 @@
       </c>
       <c r="G10" s="40"/>
     </row>
-    <row r="11" spans="1:7" s="16" customFormat="1">
+    <row r="11" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20">
         <v>9</v>
       </c>
@@ -3711,7 +3706,7 @@
       </c>
       <c r="G11" s="40"/>
     </row>
-    <row r="12" spans="1:7" s="16" customFormat="1" ht="30">
+    <row r="12" spans="1:7" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="20">
         <v>10</v>
       </c>
@@ -3728,7 +3723,7 @@
       </c>
       <c r="G12" s="40"/>
     </row>
-    <row r="13" spans="1:7" s="16" customFormat="1">
+    <row r="13" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20">
         <v>11</v>
       </c>
@@ -3745,7 +3740,7 @@
       </c>
       <c r="G13" s="40"/>
     </row>
-    <row r="14" spans="1:7" s="16" customFormat="1" ht="30">
+    <row r="14" spans="1:7" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="20">
         <v>12</v>
       </c>
@@ -3762,7 +3757,7 @@
       </c>
       <c r="G14" s="40"/>
     </row>
-    <row r="15" spans="1:7" s="16" customFormat="1" ht="30">
+    <row r="15" spans="1:7" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="20">
         <v>13</v>
       </c>
@@ -3779,7 +3774,7 @@
       </c>
       <c r="G15" s="40"/>
     </row>
-    <row r="16" spans="1:7" s="16" customFormat="1" ht="30">
+    <row r="16" spans="1:7" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="20">
         <v>14</v>
       </c>
@@ -3796,7 +3791,7 @@
       </c>
       <c r="G16" s="40"/>
     </row>
-    <row r="17" spans="1:7" s="16" customFormat="1" ht="30">
+    <row r="17" spans="1:7" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="20">
         <v>15</v>
       </c>
@@ -3813,7 +3808,7 @@
       </c>
       <c r="G17" s="40"/>
     </row>
-    <row r="18" spans="1:7" s="16" customFormat="1" ht="30">
+    <row r="18" spans="1:7" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="20">
         <v>16</v>
       </c>
@@ -3830,7 +3825,7 @@
       </c>
       <c r="G18" s="40"/>
     </row>
-    <row r="19" spans="1:7" s="16" customFormat="1" ht="30">
+    <row r="19" spans="1:7" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="20">
         <v>17</v>
       </c>
@@ -3851,7 +3846,7 @@
       </c>
       <c r="G19" s="40"/>
     </row>
-    <row r="20" spans="1:7" s="16" customFormat="1">
+    <row r="20" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="20">
         <v>18</v>
       </c>
@@ -3868,7 +3863,7 @@
       </c>
       <c r="G20" s="40"/>
     </row>
-    <row r="21" spans="1:7" s="16" customFormat="1" ht="30">
+    <row r="21" spans="1:7" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="20">
         <v>19</v>
       </c>
@@ -3885,7 +3880,7 @@
       </c>
       <c r="G21" s="40"/>
     </row>
-    <row r="22" spans="1:7" s="16" customFormat="1" ht="30">
+    <row r="22" spans="1:7" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="20">
         <v>20</v>
       </c>
@@ -3904,7 +3899,7 @@
       </c>
       <c r="G22" s="40"/>
     </row>
-    <row r="23" spans="1:7" s="16" customFormat="1">
+    <row r="23" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20">
         <v>21</v>
       </c>
@@ -3923,7 +3918,7 @@
       </c>
       <c r="G23" s="40"/>
     </row>
-    <row r="24" spans="1:7" ht="27" customHeight="1">
+    <row r="24" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="20">
         <v>22</v>
       </c>
@@ -3940,7 +3935,7 @@
       </c>
       <c r="G24" s="40"/>
     </row>
-    <row r="25" spans="1:7" ht="45">
+    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="20">
         <v>23</v>
       </c>
@@ -3959,7 +3954,7 @@
       </c>
       <c r="G25" s="40"/>
     </row>
-    <row r="26" spans="1:7" ht="30">
+    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="20">
         <v>24</v>
       </c>
@@ -3976,7 +3971,7 @@
       </c>
       <c r="G26" s="40"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="20">
         <v>25</v>
       </c>
@@ -3993,7 +3988,7 @@
       <c r="F27" s="65"/>
       <c r="G27" s="65"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
         <v>81</v>
       </c>
@@ -4012,7 +4007,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -4020,7 +4015,7 @@
       <selection pane="bottomLeft" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="14" customWidth="1"/>
     <col min="2" max="2" width="62" style="7" customWidth="1"/>
@@ -4030,7 +4025,7 @@
     <col min="8" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="71" t="s">
         <v>82</v>
       </c>
@@ -4041,7 +4036,7 @@
       <c r="F1" s="72"/>
       <c r="G1" s="73"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -4064,7 +4059,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30">
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -4083,7 +4078,7 @@
       </c>
       <c r="G3" s="9"/>
     </row>
-    <row r="4" spans="1:7" ht="90">
+    <row r="4" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -4104,7 +4099,7 @@
       </c>
       <c r="G4" s="9"/>
     </row>
-    <row r="5" spans="1:7" ht="45">
+    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>3</v>
       </c>
@@ -4125,7 +4120,7 @@
       </c>
       <c r="G5" s="12"/>
     </row>
-    <row r="6" spans="1:7" ht="135">
+    <row r="6" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>4</v>
       </c>
@@ -4142,7 +4137,7 @@
       </c>
       <c r="G6" s="9"/>
     </row>
-    <row r="7" spans="1:7" ht="75">
+    <row r="7" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>5</v>
       </c>
@@ -4159,7 +4154,7 @@
       </c>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" spans="1:7" ht="90">
+    <row r="8" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>6</v>
       </c>
@@ -4180,7 +4175,7 @@
       </c>
       <c r="G8" s="9"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>7</v>
       </c>
@@ -4201,7 +4196,7 @@
       </c>
       <c r="G9" s="9"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>8</v>
       </c>
@@ -4222,7 +4217,7 @@
       </c>
       <c r="G10" s="12"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>9</v>
       </c>
@@ -4243,7 +4238,7 @@
       </c>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>10</v>
       </c>
@@ -4264,7 +4259,7 @@
       </c>
       <c r="G12" s="12"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>11</v>
       </c>
@@ -4285,7 +4280,7 @@
       </c>
       <c r="G13" s="12"/>
     </row>
-    <row r="14" spans="1:7" ht="45">
+    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>12</v>
       </c>
@@ -4306,7 +4301,7 @@
       </c>
       <c r="G14" s="9"/>
     </row>
-    <row r="15" spans="1:7" ht="60">
+    <row r="15" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>13</v>
       </c>
@@ -4327,7 +4322,7 @@
       </c>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>14</v>
       </c>
@@ -4346,7 +4341,7 @@
       </c>
       <c r="G16" s="9"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>15</v>
       </c>
@@ -4365,7 +4360,7 @@
       </c>
       <c r="G17" s="9"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>16</v>
       </c>
@@ -4382,7 +4377,7 @@
       </c>
       <c r="G18" s="12"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>17</v>
       </c>
@@ -4399,7 +4394,7 @@
       </c>
       <c r="G19" s="12"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>18</v>
       </c>
@@ -4416,7 +4411,7 @@
       </c>
       <c r="G20" s="12"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>19</v>
       </c>
@@ -4433,7 +4428,7 @@
       </c>
       <c r="G21" s="12"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>20</v>
       </c>
@@ -4450,7 +4445,7 @@
       </c>
       <c r="G22" s="12"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>21</v>
       </c>
@@ -4467,7 +4462,7 @@
       </c>
       <c r="G23" s="12"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>22</v>
       </c>
@@ -4484,7 +4479,7 @@
       </c>
       <c r="G24" s="12"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>23</v>
       </c>
@@ -4501,7 +4496,7 @@
       </c>
       <c r="G25" s="12"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>24</v>
       </c>
@@ -4518,7 +4513,7 @@
       </c>
       <c r="G26" s="12"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>25</v>
       </c>
@@ -4535,7 +4530,7 @@
       </c>
       <c r="G27" s="12"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>26</v>
       </c>
@@ -4552,7 +4547,7 @@
       </c>
       <c r="G28" s="12"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>27</v>
       </c>
@@ -4569,7 +4564,7 @@
       </c>
       <c r="G29" s="12"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>28</v>
       </c>
@@ -4586,7 +4581,7 @@
       </c>
       <c r="G30" s="12"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>29</v>
       </c>
@@ -4603,7 +4598,7 @@
       </c>
       <c r="G31" s="9"/>
     </row>
-    <row r="32" spans="1:7" ht="150">
+    <row r="32" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>30</v>
       </c>
@@ -4620,7 +4615,7 @@
       </c>
       <c r="G32" s="9"/>
     </row>
-    <row r="33" spans="1:7" ht="105">
+    <row r="33" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>31</v>
       </c>
@@ -4639,7 +4634,7 @@
       </c>
       <c r="G33" s="9"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>32</v>
       </c>
@@ -4660,7 +4655,7 @@
       </c>
       <c r="G34" s="9"/>
     </row>
-    <row r="35" spans="1:7" ht="30">
+    <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>33</v>
       </c>
@@ -4679,7 +4674,7 @@
       </c>
       <c r="G35" s="9"/>
     </row>
-    <row r="36" spans="1:7" ht="30">
+    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>34</v>
       </c>
@@ -4698,7 +4693,7 @@
       </c>
       <c r="G36" s="9"/>
     </row>
-    <row r="37" spans="1:7" ht="45">
+    <row r="37" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>35</v>
       </c>
@@ -4719,7 +4714,7 @@
       </c>
       <c r="G37" s="9"/>
     </row>
-    <row r="38" spans="1:7" ht="30">
+    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
         <v>36</v>
       </c>
@@ -4740,7 +4735,7 @@
       </c>
       <c r="G38" s="9"/>
     </row>
-    <row r="39" spans="1:7" ht="30">
+    <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
         <v>37</v>
       </c>
@@ -4761,7 +4756,7 @@
       </c>
       <c r="G39" s="9"/>
     </row>
-    <row r="40" spans="1:7" ht="75">
+    <row r="40" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
         <v>38</v>
       </c>
@@ -4778,7 +4773,7 @@
       </c>
       <c r="G40" s="9"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
         <v>39</v>
       </c>
@@ -4795,7 +4790,7 @@
       </c>
       <c r="G41" s="9"/>
     </row>
-    <row r="42" spans="1:7" ht="60">
+    <row r="42" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" s="38">
         <v>40</v>
       </c>
@@ -4816,7 +4811,7 @@
       </c>
       <c r="G42" s="9"/>
     </row>
-    <row r="43" spans="1:7" ht="60">
+    <row r="43" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" s="38">
         <v>41</v>
       </c>
@@ -4837,7 +4832,7 @@
       </c>
       <c r="G43" s="9"/>
     </row>
-    <row r="44" spans="1:7" s="1" customFormat="1" ht="30">
+    <row r="44" spans="1:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="20">
         <v>42</v>
       </c>
@@ -4867,17 +4862,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomRight" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="14"/>
     <col min="2" max="2" width="62" style="7" customWidth="1"/>
@@ -4887,7 +4882,7 @@
     <col min="8" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="71" t="s">
         <v>156</v>
       </c>
@@ -4898,7 +4893,7 @@
       <c r="F1" s="72"/>
       <c r="G1" s="73"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -4921,7 +4916,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30">
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="38">
         <v>1</v>
       </c>
@@ -4940,7 +4935,7 @@
       </c>
       <c r="G3" s="55"/>
     </row>
-    <row r="4" spans="1:7" ht="45">
+    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="38">
         <v>2</v>
       </c>
@@ -4961,7 +4956,7 @@
       </c>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="1:7" ht="75">
+    <row r="5" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="38">
         <v>3</v>
       </c>
@@ -4978,7 +4973,7 @@
       </c>
       <c r="G5" s="22"/>
     </row>
-    <row r="6" spans="1:7" ht="30">
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="38">
         <v>4</v>
       </c>
@@ -4999,7 +4994,7 @@
       </c>
       <c r="G6" s="22"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="38">
         <v>5</v>
       </c>
@@ -5020,7 +5015,7 @@
       </c>
       <c r="G7" s="22"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="38">
         <v>6</v>
       </c>
@@ -5041,7 +5036,7 @@
       </c>
       <c r="G8" s="22"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="38">
         <v>7</v>
       </c>
@@ -5062,7 +5057,7 @@
       </c>
       <c r="G9" s="22"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="38">
         <v>8</v>
       </c>
@@ -5083,7 +5078,7 @@
       </c>
       <c r="G10" s="22"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="38">
         <v>9</v>
       </c>
@@ -5104,7 +5099,7 @@
       </c>
       <c r="G11" s="22"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="38">
         <v>10</v>
       </c>
@@ -5125,7 +5120,7 @@
       </c>
       <c r="G12" s="22"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="38">
         <v>11</v>
       </c>
@@ -5146,7 +5141,7 @@
       </c>
       <c r="G13" s="22"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="38">
         <v>12</v>
       </c>
@@ -5167,7 +5162,7 @@
       </c>
       <c r="G14" s="22"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="38">
         <v>13</v>
       </c>
@@ -5184,7 +5179,7 @@
       </c>
       <c r="G15" s="22"/>
     </row>
-    <row r="16" spans="1:7" ht="30">
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="38">
         <v>14</v>
       </c>
@@ -5205,7 +5200,7 @@
       </c>
       <c r="G16" s="22"/>
     </row>
-    <row r="17" spans="1:7" ht="30">
+    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="38">
         <v>15</v>
       </c>
@@ -5226,7 +5221,7 @@
       </c>
       <c r="G17" s="22"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="38">
         <v>16</v>
       </c>
@@ -5247,7 +5242,7 @@
       </c>
       <c r="G18" s="22"/>
     </row>
-    <row r="19" spans="1:7" ht="30">
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="38">
         <v>17</v>
       </c>
@@ -5268,7 +5263,7 @@
       </c>
       <c r="G19" s="22"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="38">
         <v>18</v>
       </c>
@@ -5285,7 +5280,7 @@
       </c>
       <c r="G20" s="22"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="38">
         <v>19</v>
       </c>
@@ -5304,7 +5299,7 @@
       </c>
       <c r="G21" s="22"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="38">
         <v>20</v>
       </c>
@@ -5321,7 +5316,7 @@
       </c>
       <c r="G22" s="22"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="38">
         <v>21</v>
       </c>
@@ -5338,7 +5333,7 @@
       </c>
       <c r="G23" s="22"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="38">
         <v>22</v>
       </c>
@@ -5357,7 +5352,7 @@
       </c>
       <c r="G24" s="22"/>
     </row>
-    <row r="25" spans="1:7" ht="45">
+    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="38">
         <v>23</v>
       </c>
@@ -5376,7 +5371,7 @@
       </c>
       <c r="G25" s="22"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="38">
         <v>24</v>
       </c>
@@ -5395,7 +5390,7 @@
       </c>
       <c r="G26" s="22"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="38">
         <v>25</v>
       </c>
@@ -5414,7 +5409,7 @@
       </c>
       <c r="G27" s="22"/>
     </row>
-    <row r="28" spans="1:7" ht="30">
+    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="38">
         <v>26</v>
       </c>
@@ -5429,7 +5424,7 @@
       </c>
       <c r="G28" s="22"/>
     </row>
-    <row r="29" spans="1:7" ht="30">
+    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="38">
         <v>27</v>
       </c>
@@ -5444,7 +5439,7 @@
       </c>
       <c r="G29" s="22"/>
     </row>
-    <row r="30" spans="1:7" ht="30">
+    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="38">
         <v>28</v>
       </c>
@@ -5459,7 +5454,7 @@
       </c>
       <c r="G30" s="22"/>
     </row>
-    <row r="31" spans="1:7" ht="30">
+    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="38">
         <v>29</v>
       </c>
@@ -5474,7 +5469,7 @@
       </c>
       <c r="G31" s="22"/>
     </row>
-    <row r="32" spans="1:7" ht="30">
+    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="38">
         <v>30</v>
       </c>
@@ -5489,7 +5484,7 @@
       </c>
       <c r="G32" s="22"/>
     </row>
-    <row r="33" spans="1:7" ht="30">
+    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="38">
         <v>31</v>
       </c>
@@ -5504,7 +5499,7 @@
       </c>
       <c r="G33" s="22"/>
     </row>
-    <row r="34" spans="1:7" ht="30">
+    <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="38">
         <v>32</v>
       </c>
@@ -5519,7 +5514,7 @@
       </c>
       <c r="G34" s="22"/>
     </row>
-    <row r="35" spans="1:7" ht="30">
+    <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="38">
         <v>33</v>
       </c>
@@ -5547,17 +5542,17 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomRight" activeCell="B30" sqref="B30"/>
+      <selection pane="bottomRight" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.85546875" style="14" customWidth="1"/>
     <col min="2" max="2" width="72" style="7" customWidth="1"/>
@@ -5569,7 +5564,7 @@
     <col min="8" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="71" t="s">
         <v>207</v>
       </c>
@@ -5580,7 +5575,7 @@
       <c r="F1" s="72"/>
       <c r="G1" s="73"/>
     </row>
-    <row r="2" spans="1:7" s="32" customFormat="1" ht="12.75">
+    <row r="2" spans="1:7" s="32" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A2" s="57" t="s">
         <v>1</v>
       </c>
@@ -5603,7 +5598,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="225">
+    <row r="3" spans="1:7" ht="240" x14ac:dyDescent="0.25">
       <c r="A3" s="33">
         <v>1</v>
       </c>
@@ -5624,7 +5619,7 @@
       </c>
       <c r="G3" s="34"/>
     </row>
-    <row r="4" spans="1:7" ht="45">
+    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="33">
         <v>2</v>
       </c>
@@ -5645,7 +5640,7 @@
       </c>
       <c r="G4" s="37"/>
     </row>
-    <row r="5" spans="1:7" ht="30">
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="33">
         <v>3</v>
       </c>
@@ -5666,7 +5661,7 @@
       </c>
       <c r="G5" s="37"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="33">
         <v>4</v>
       </c>
@@ -5685,7 +5680,7 @@
       </c>
       <c r="G6" s="37"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="33">
         <v>5</v>
       </c>
@@ -5704,7 +5699,7 @@
       </c>
       <c r="G7" s="37"/>
     </row>
-    <row r="8" spans="1:7" ht="30">
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="33">
         <v>6</v>
       </c>
@@ -5725,7 +5720,7 @@
       </c>
       <c r="G8" s="37"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="33">
         <v>7</v>
       </c>
@@ -5744,7 +5739,7 @@
       </c>
       <c r="G9" s="37"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="33">
         <v>8</v>
       </c>
@@ -5763,7 +5758,7 @@
       </c>
       <c r="G10" s="37"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="33">
         <v>9</v>
       </c>
@@ -5780,7 +5775,7 @@
       </c>
       <c r="G11" s="37"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="33">
         <v>10</v>
       </c>
@@ -5797,7 +5792,7 @@
       </c>
       <c r="G12" s="37"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="33">
         <v>11</v>
       </c>
@@ -5814,7 +5809,7 @@
       </c>
       <c r="G13" s="37"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="33">
         <v>12</v>
       </c>
@@ -5831,7 +5826,7 @@
       </c>
       <c r="G14" s="37"/>
     </row>
-    <row r="15" spans="1:7" ht="30">
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="33">
         <v>13</v>
       </c>
@@ -5852,7 +5847,7 @@
       </c>
       <c r="G15" s="34"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="33">
         <v>14</v>
       </c>
@@ -5873,7 +5868,7 @@
       </c>
       <c r="G16" s="37"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="33">
         <v>15</v>
       </c>
@@ -5894,7 +5889,7 @@
       </c>
       <c r="G17" s="37"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="33">
         <v>16</v>
       </c>
@@ -5915,7 +5910,7 @@
       </c>
       <c r="G18" s="37"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="33">
         <v>17</v>
       </c>
@@ -5932,7 +5927,7 @@
       </c>
       <c r="G19" s="37"/>
     </row>
-    <row r="20" spans="1:7" ht="30">
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="33">
         <v>18</v>
       </c>
@@ -5949,7 +5944,7 @@
       </c>
       <c r="G20" s="37"/>
     </row>
-    <row r="21" spans="1:7" ht="30">
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="33">
         <v>19</v>
       </c>
@@ -5970,7 +5965,7 @@
       </c>
       <c r="G21" s="37"/>
     </row>
-    <row r="22" spans="1:7" ht="30">
+    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="33">
         <v>20</v>
       </c>
@@ -5991,7 +5986,7 @@
       </c>
       <c r="G22" s="37"/>
     </row>
-    <row r="23" spans="1:7" ht="30">
+    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="33">
         <v>21</v>
       </c>
@@ -6012,7 +6007,7 @@
       </c>
       <c r="G23" s="37"/>
     </row>
-    <row r="24" spans="1:7" ht="30">
+    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="33">
         <v>22</v>
       </c>
@@ -6033,7 +6028,7 @@
       </c>
       <c r="G24" s="37"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="33">
         <v>23</v>
       </c>
@@ -6048,7 +6043,7 @@
       <c r="F25" s="34"/>
       <c r="G25" s="37"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="33">
         <v>24</v>
       </c>
@@ -6063,21 +6058,21 @@
       <c r="F26" s="34"/>
       <c r="G26" s="37"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="33">
         <v>25</v>
       </c>
       <c r="B27" s="37" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="C27" s="36" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="49" t="s">
-        <v>251</v>
+        <v>27</v>
       </c>
       <c r="E27" s="49" t="s">
-        <v>252</v>
+        <v>218</v>
       </c>
       <c r="F27" s="34"/>
       <c r="G27" s="37"/>
@@ -6092,14 +6087,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.85546875" style="14" customWidth="1"/>
     <col min="2" max="2" width="76.5703125" style="7" customWidth="1"/>
@@ -6110,9 +6105,9 @@
     <col min="8" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="71" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B1" s="72"/>
       <c r="C1" s="72"/>
@@ -6121,7 +6116,7 @@
       <c r="F1" s="72"/>
       <c r="G1" s="73"/>
     </row>
-    <row r="2" spans="1:7" s="32" customFormat="1" ht="12.75">
+    <row r="2" spans="1:7" s="32" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A2" s="57" t="s">
         <v>1</v>
       </c>
@@ -6144,27 +6139,27 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="45">
+    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="33">
         <v>1</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C3" s="36"/>
       <c r="D3" s="37"/>
       <c r="E3" s="37"/>
       <c r="F3" s="37" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G3" s="37"/>
     </row>
-    <row r="4" spans="1:7" ht="45">
+    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="33">
         <v>2</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C4" s="36"/>
       <c r="D4" s="37"/>
@@ -6174,12 +6169,12 @@
       </c>
       <c r="G4" s="37"/>
     </row>
-    <row r="5" spans="1:7" ht="45">
+    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="33">
         <v>3</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C5" s="35" t="s">
         <v>9</v>
@@ -6191,35 +6186,35 @@
         <v>180</v>
       </c>
       <c r="F5" s="34" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G5" s="34"/>
     </row>
-    <row r="6" spans="1:7" ht="60">
+    <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="33">
         <v>4</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C6" s="35" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E6" s="34"/>
       <c r="F6" s="34" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G6" s="34"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="33">
         <v>5</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C7" s="35"/>
       <c r="D7" s="37"/>
@@ -6229,12 +6224,12 @@
       </c>
       <c r="G7" s="37"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="33">
         <v>6</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C8" s="35"/>
       <c r="D8" s="37"/>
@@ -6244,12 +6239,12 @@
       </c>
       <c r="G8" s="37"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="33">
         <v>7</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C9" s="35"/>
       <c r="D9" s="37"/>
@@ -6259,12 +6254,12 @@
       </c>
       <c r="G9" s="37"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="33">
         <v>8</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C10" s="35"/>
       <c r="D10" s="37"/>
@@ -6274,12 +6269,12 @@
       </c>
       <c r="G10" s="37"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="33">
         <v>9</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C11" s="35"/>
       <c r="D11" s="37"/>
@@ -6289,12 +6284,12 @@
       </c>
       <c r="G11" s="37"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="33">
         <v>10</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C12" s="36"/>
       <c r="D12" s="37"/>
@@ -6312,15 +6307,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="CTDocLibrary" ma:contentTypeID="0x010100C5D5EC2DEF914E3897774E287F80A8FB00C54CAAC0C88AA446A5AFE942C68BA98B" ma:contentTypeVersion="8" ma:contentTypeDescription="My Content Type" ma:contentTypeScope="" ma:versionID="8509de5a9a506e3b9b1fe93a7c193cee">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="fd9ad297-cc8c-4afc-b828-e13c9647a5fa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b380538c208c9f76b13ef3dbebc9c2d9" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -6527,6 +6513,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -6554,14 +6549,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3174CE2-5708-4158-93D0-CBBFFB333158}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E8A634F-74FC-499D-ABEA-0CA6D30F983F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6580,6 +6567,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3174CE2-5708-4158-93D0-CBBFFB333158}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50A5568B-AE5A-4E16-9E1F-F6758BCAE61C}">
   <ds:schemaRefs>

--- a/requirements/MOSIP_Configurations_Consolidated List_Updated_12Oct18_CV.xlsx
+++ b/requirements/MOSIP_Configurations_Consolidated List_Updated_12Oct18_CV.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F5D1F7A0-5E55-4C33-8E32-43585EB306EE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C3806A0-DADD-4E81-90DA-8553D5BBEBE5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7065" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7070" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kernel" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="265">
   <si>
     <r>
       <t xml:space="preserve">Configurations: </t>
@@ -1533,6 +1533,12 @@
     <xf numFmtId="16" fontId="3" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1547,12 +1553,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2959,31 +2959,31 @@
       <selection pane="bottomRight" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" style="14" customWidth="1"/>
+    <col min="1" max="1" width="6.81640625" style="14" customWidth="1"/>
     <col min="2" max="2" width="69" style="31" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="37.85546875" style="7" customWidth="1"/>
-    <col min="7" max="7" width="63.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="7"/>
+    <col min="3" max="3" width="24.54296875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="17.1796875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="23.81640625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="37.81640625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="63.26953125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.1796875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
       <c r="H1" s="31"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
@@ -3007,7 +3007,7 @@
       </c>
       <c r="H2" s="31"/>
     </row>
-    <row r="3" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="28">
         <v>1</v>
       </c>
@@ -3043,7 +3043,7 @@
       <c r="Y3" s="7"/>
       <c r="Z3" s="7"/>
     </row>
-    <row r="4" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -3081,7 +3081,7 @@
       <c r="Y4" s="7"/>
       <c r="Z4" s="7"/>
     </row>
-    <row r="5" spans="1:26" s="29" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" s="29" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A5" s="28">
         <v>3</v>
       </c>
@@ -3119,7 +3119,7 @@
       <c r="Y5" s="7"/>
       <c r="Z5" s="7"/>
     </row>
-    <row r="6" spans="1:26" s="29" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" s="29" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A6" s="8">
         <v>4</v>
       </c>
@@ -3157,7 +3157,7 @@
       <c r="Y6" s="7"/>
       <c r="Z6" s="7"/>
     </row>
-    <row r="7" spans="1:26" s="29" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" s="29" customFormat="1" ht="65" x14ac:dyDescent="0.35">
       <c r="A7" s="28">
         <v>5</v>
       </c>
@@ -3195,7 +3195,7 @@
       <c r="Y7" s="7"/>
       <c r="Z7" s="7"/>
     </row>
-    <row r="8" spans="1:26" s="29" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" s="29" customFormat="1" ht="65" x14ac:dyDescent="0.35">
       <c r="A8" s="8">
         <v>6</v>
       </c>
@@ -3233,7 +3233,7 @@
       <c r="Y8" s="7"/>
       <c r="Z8" s="7"/>
     </row>
-    <row r="9" spans="1:26" s="29" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" s="29" customFormat="1" ht="65" x14ac:dyDescent="0.35">
       <c r="A9" s="28">
         <v>7</v>
       </c>
@@ -3271,7 +3271,7 @@
       <c r="Y9" s="7"/>
       <c r="Z9" s="7"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A10" s="8">
         <v>8</v>
       </c>
@@ -3289,7 +3289,7 @@
       <c r="G10" s="37"/>
       <c r="H10" s="31"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A11" s="28">
         <v>9</v>
       </c>
@@ -3307,7 +3307,7 @@
       <c r="G11" s="37"/>
       <c r="H11" s="31"/>
     </row>
-    <row r="12" spans="1:26" ht="90" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" ht="65" x14ac:dyDescent="0.35">
       <c r="A12" s="8">
         <v>10</v>
       </c>
@@ -3327,7 +3327,7 @@
       <c r="G12" s="9"/>
       <c r="H12" s="31"/>
     </row>
-    <row r="13" spans="1:26" ht="90" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" ht="65" x14ac:dyDescent="0.35">
       <c r="A13" s="28">
         <v>11</v>
       </c>
@@ -3345,7 +3345,7 @@
       <c r="G13" s="9"/>
       <c r="H13" s="31"/>
     </row>
-    <row r="14" spans="1:26" ht="90" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="65" x14ac:dyDescent="0.35">
       <c r="A14" s="8">
         <v>12</v>
       </c>
@@ -3364,7 +3364,7 @@
       </c>
       <c r="G14" s="9"/>
     </row>
-    <row r="15" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" ht="26" x14ac:dyDescent="0.35">
       <c r="A15" s="28">
         <v>13</v>
       </c>
@@ -3383,7 +3383,7 @@
       </c>
       <c r="G15" s="12"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A16" s="8">
         <v>14</v>
       </c>
@@ -3400,7 +3400,7 @@
       </c>
       <c r="G16" s="37"/>
     </row>
-    <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="39" x14ac:dyDescent="0.35">
       <c r="A17" s="28">
         <v>15</v>
       </c>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="G17" s="45"/>
     </row>
-    <row r="18" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="78" x14ac:dyDescent="0.35">
       <c r="A18" s="8">
         <v>16</v>
       </c>
@@ -3436,7 +3436,7 @@
       </c>
       <c r="G18" s="34"/>
     </row>
-    <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="39" x14ac:dyDescent="0.35">
       <c r="A19" s="28">
         <v>17</v>
       </c>
@@ -3453,7 +3453,7 @@
       </c>
       <c r="G19" s="34"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="33"/>
       <c r="B20" s="34"/>
       <c r="C20" s="37"/>
@@ -3483,29 +3483,29 @@
       <selection pane="bottomLeft" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="2" customWidth="1"/>
     <col min="2" max="2" width="72" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.453125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.26953125" style="1" customWidth="1"/>
     <col min="5" max="5" width="20" style="1" customWidth="1"/>
     <col min="6" max="7" width="39" style="42" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="69" t="s">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
@@ -3528,7 +3528,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="16" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A3" s="20">
         <v>1</v>
       </c>
@@ -3549,7 +3549,7 @@
       </c>
       <c r="G3" s="40"/>
     </row>
-    <row r="4" spans="1:7" s="16" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="16" customFormat="1" ht="78" x14ac:dyDescent="0.35">
       <c r="A4" s="20">
         <v>2</v>
       </c>
@@ -3568,7 +3568,7 @@
       </c>
       <c r="G4" s="40"/>
     </row>
-    <row r="5" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20">
         <v>3</v>
       </c>
@@ -3589,7 +3589,7 @@
       </c>
       <c r="G5" s="40"/>
     </row>
-    <row r="6" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="20">
         <v>4</v>
       </c>
@@ -3610,7 +3610,7 @@
       </c>
       <c r="G6" s="40"/>
     </row>
-    <row r="7" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="20">
         <v>5</v>
       </c>
@@ -3631,7 +3631,7 @@
       </c>
       <c r="G7" s="40"/>
     </row>
-    <row r="8" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="20">
         <v>6</v>
       </c>
@@ -3652,7 +3652,7 @@
       </c>
       <c r="G8" s="40"/>
     </row>
-    <row r="9" spans="1:7" s="16" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" s="16" customFormat="1" ht="104" x14ac:dyDescent="0.35">
       <c r="A9" s="20">
         <v>7</v>
       </c>
@@ -3671,7 +3671,7 @@
       </c>
       <c r="G9" s="40"/>
     </row>
-    <row r="10" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="20">
         <v>8</v>
       </c>
@@ -3688,7 +3688,7 @@
       </c>
       <c r="G10" s="40"/>
     </row>
-    <row r="11" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="20">
         <v>9</v>
       </c>
@@ -3705,7 +3705,7 @@
       </c>
       <c r="G11" s="40"/>
     </row>
-    <row r="12" spans="1:7" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="20">
         <v>10</v>
       </c>
@@ -3722,7 +3722,7 @@
       </c>
       <c r="G12" s="40"/>
     </row>
-    <row r="13" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="20">
         <v>11</v>
       </c>
@@ -3739,7 +3739,7 @@
       </c>
       <c r="G13" s="40"/>
     </row>
-    <row r="14" spans="1:7" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" s="16" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A14" s="20">
         <v>12</v>
       </c>
@@ -3756,7 +3756,7 @@
       </c>
       <c r="G14" s="40"/>
     </row>
-    <row r="15" spans="1:7" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" s="16" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A15" s="20">
         <v>13</v>
       </c>
@@ -3773,7 +3773,7 @@
       </c>
       <c r="G15" s="40"/>
     </row>
-    <row r="16" spans="1:7" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" s="16" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A16" s="20">
         <v>14</v>
       </c>
@@ -3790,7 +3790,7 @@
       </c>
       <c r="G16" s="40"/>
     </row>
-    <row r="17" spans="1:7" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" s="16" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A17" s="20">
         <v>15</v>
       </c>
@@ -3807,7 +3807,7 @@
       </c>
       <c r="G17" s="40"/>
     </row>
-    <row r="18" spans="1:7" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" s="16" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A18" s="20">
         <v>16</v>
       </c>
@@ -3824,7 +3824,7 @@
       </c>
       <c r="G18" s="40"/>
     </row>
-    <row r="19" spans="1:7" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" s="16" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A19" s="20">
         <v>17</v>
       </c>
@@ -3845,7 +3845,7 @@
       </c>
       <c r="G19" s="40"/>
     </row>
-    <row r="20" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="20">
         <v>18</v>
       </c>
@@ -3862,7 +3862,7 @@
       </c>
       <c r="G20" s="40"/>
     </row>
-    <row r="21" spans="1:7" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="20">
         <v>19</v>
       </c>
@@ -3879,7 +3879,7 @@
       </c>
       <c r="G21" s="40"/>
     </row>
-    <row r="22" spans="1:7" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" s="16" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A22" s="20">
         <v>20</v>
       </c>
@@ -3898,7 +3898,7 @@
       </c>
       <c r="G22" s="40"/>
     </row>
-    <row r="23" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="20">
         <v>21</v>
       </c>
@@ -3917,7 +3917,7 @@
       </c>
       <c r="G23" s="40"/>
     </row>
-    <row r="24" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="20">
         <v>22</v>
       </c>
@@ -3934,7 +3934,7 @@
       </c>
       <c r="G24" s="40"/>
     </row>
-    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A25" s="20">
         <v>23</v>
       </c>
@@ -3953,7 +3953,7 @@
       </c>
       <c r="G25" s="40"/>
     </row>
-    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A26" s="20">
         <v>24</v>
       </c>
@@ -3970,7 +3970,7 @@
       </c>
       <c r="G26" s="40"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="20">
         <v>25</v>
       </c>
@@ -3987,7 +3987,7 @@
       <c r="F27" s="65"/>
       <c r="G27" s="65"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="17" t="s">
         <v>55</v>
       </c>
@@ -4014,28 +4014,28 @@
       <selection pane="bottomLeft" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="14" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="14" customWidth="1"/>
     <col min="2" max="2" width="62" style="7" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" style="15" customWidth="1"/>
-    <col min="4" max="5" width="19.85546875" style="7" customWidth="1"/>
-    <col min="6" max="7" width="44.5703125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="7"/>
+    <col min="3" max="3" width="19.81640625" style="15" customWidth="1"/>
+    <col min="4" max="5" width="19.81640625" style="7" customWidth="1"/>
+    <col min="6" max="7" width="44.54296875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.1796875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="69" t="s">
+    <row r="1" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="71"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="73"/>
+    </row>
+    <row r="2" spans="1:7" ht="13" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -4058,7 +4058,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="13" x14ac:dyDescent="0.35">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -4077,7 +4077,7 @@
       </c>
       <c r="G3" s="9"/>
     </row>
-    <row r="4" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="78" x14ac:dyDescent="0.35">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -4098,7 +4098,7 @@
       </c>
       <c r="G4" s="9"/>
     </row>
-    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="39" x14ac:dyDescent="0.35">
       <c r="A5" s="8">
         <v>3</v>
       </c>
@@ -4119,7 +4119,7 @@
       </c>
       <c r="G5" s="12"/>
     </row>
-    <row r="6" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="117" x14ac:dyDescent="0.35">
       <c r="A6" s="8">
         <v>4</v>
       </c>
@@ -4136,7 +4136,7 @@
       </c>
       <c r="G6" s="9"/>
     </row>
-    <row r="7" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="65" x14ac:dyDescent="0.35">
       <c r="A7" s="8">
         <v>5</v>
       </c>
@@ -4153,7 +4153,7 @@
       </c>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="52" x14ac:dyDescent="0.35">
       <c r="A8" s="8">
         <v>6</v>
       </c>
@@ -4174,7 +4174,7 @@
       </c>
       <c r="G8" s="9"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="13" x14ac:dyDescent="0.35">
       <c r="A9" s="8">
         <v>7</v>
       </c>
@@ -4195,7 +4195,7 @@
       </c>
       <c r="G9" s="9"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="13" x14ac:dyDescent="0.35">
       <c r="A10" s="8">
         <v>8</v>
       </c>
@@ -4216,7 +4216,7 @@
       </c>
       <c r="G10" s="12"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="13" x14ac:dyDescent="0.35">
       <c r="A11" s="8">
         <v>9</v>
       </c>
@@ -4237,7 +4237,7 @@
       </c>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="13" x14ac:dyDescent="0.35">
       <c r="A12" s="8">
         <v>10</v>
       </c>
@@ -4258,7 +4258,7 @@
       </c>
       <c r="G12" s="12"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="13" x14ac:dyDescent="0.35">
       <c r="A13" s="8">
         <v>11</v>
       </c>
@@ -4279,7 +4279,7 @@
       </c>
       <c r="G13" s="12"/>
     </row>
-    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="39" x14ac:dyDescent="0.35">
       <c r="A14" s="8">
         <v>12</v>
       </c>
@@ -4300,7 +4300,7 @@
       </c>
       <c r="G14" s="9"/>
     </row>
-    <row r="15" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="52" x14ac:dyDescent="0.35">
       <c r="A15" s="8">
         <v>13</v>
       </c>
@@ -4321,7 +4321,7 @@
       </c>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="13" x14ac:dyDescent="0.35">
       <c r="A16" s="8">
         <v>14</v>
       </c>
@@ -4340,7 +4340,7 @@
       </c>
       <c r="G16" s="9"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="13" x14ac:dyDescent="0.35">
       <c r="A17" s="8">
         <v>15</v>
       </c>
@@ -4359,7 +4359,7 @@
       </c>
       <c r="G17" s="9"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="13" x14ac:dyDescent="0.35">
       <c r="A18" s="8">
         <v>16</v>
       </c>
@@ -4376,7 +4376,7 @@
       </c>
       <c r="G18" s="12"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="13" x14ac:dyDescent="0.35">
       <c r="A19" s="8">
         <v>17</v>
       </c>
@@ -4393,7 +4393,7 @@
       </c>
       <c r="G19" s="12"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="13" x14ac:dyDescent="0.35">
       <c r="A20" s="8">
         <v>18</v>
       </c>
@@ -4410,7 +4410,7 @@
       </c>
       <c r="G20" s="12"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="13" x14ac:dyDescent="0.35">
       <c r="A21" s="8">
         <v>19</v>
       </c>
@@ -4427,7 +4427,7 @@
       </c>
       <c r="G21" s="12"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="13" x14ac:dyDescent="0.35">
       <c r="A22" s="8">
         <v>20</v>
       </c>
@@ -4444,7 +4444,7 @@
       </c>
       <c r="G22" s="12"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="13" x14ac:dyDescent="0.35">
       <c r="A23" s="8">
         <v>21</v>
       </c>
@@ -4461,7 +4461,7 @@
       </c>
       <c r="G23" s="12"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="13" x14ac:dyDescent="0.35">
       <c r="A24" s="8">
         <v>22</v>
       </c>
@@ -4478,7 +4478,7 @@
       </c>
       <c r="G24" s="12"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="13" x14ac:dyDescent="0.35">
       <c r="A25" s="8">
         <v>23</v>
       </c>
@@ -4495,7 +4495,7 @@
       </c>
       <c r="G25" s="12"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="13" x14ac:dyDescent="0.35">
       <c r="A26" s="8">
         <v>24</v>
       </c>
@@ -4512,7 +4512,7 @@
       </c>
       <c r="G26" s="12"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="13" x14ac:dyDescent="0.35">
       <c r="A27" s="8">
         <v>25</v>
       </c>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="G27" s="12"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="13" x14ac:dyDescent="0.35">
       <c r="A28" s="8">
         <v>26</v>
       </c>
@@ -4546,7 +4546,7 @@
       </c>
       <c r="G28" s="12"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="13" x14ac:dyDescent="0.35">
       <c r="A29" s="8">
         <v>27</v>
       </c>
@@ -4563,7 +4563,7 @@
       </c>
       <c r="G29" s="12"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="13" x14ac:dyDescent="0.35">
       <c r="A30" s="8">
         <v>28</v>
       </c>
@@ -4580,7 +4580,7 @@
       </c>
       <c r="G30" s="12"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="13" x14ac:dyDescent="0.35">
       <c r="A31" s="8">
         <v>29</v>
       </c>
@@ -4597,7 +4597,7 @@
       </c>
       <c r="G31" s="9"/>
     </row>
-    <row r="32" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="130" x14ac:dyDescent="0.35">
       <c r="A32" s="8">
         <v>30</v>
       </c>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="G32" s="9"/>
     </row>
-    <row r="33" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="91" x14ac:dyDescent="0.35">
       <c r="A33" s="8">
         <v>31</v>
       </c>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="G33" s="9"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="13" x14ac:dyDescent="0.35">
       <c r="A34" s="8">
         <v>32</v>
       </c>
@@ -4654,7 +4654,7 @@
       </c>
       <c r="G34" s="9"/>
     </row>
-    <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A35" s="8">
         <v>33</v>
       </c>
@@ -4673,7 +4673,7 @@
       </c>
       <c r="G35" s="9"/>
     </row>
-    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A36" s="8">
         <v>34</v>
       </c>
@@ -4692,7 +4692,7 @@
       </c>
       <c r="G36" s="9"/>
     </row>
-    <row r="37" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="39" x14ac:dyDescent="0.35">
       <c r="A37" s="8">
         <v>35</v>
       </c>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="G37" s="9"/>
     </row>
-    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A38" s="8">
         <v>36</v>
       </c>
@@ -4734,7 +4734,7 @@
       </c>
       <c r="G38" s="9"/>
     </row>
-    <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="13" x14ac:dyDescent="0.35">
       <c r="A39" s="8">
         <v>37</v>
       </c>
@@ -4755,7 +4755,7 @@
       </c>
       <c r="G39" s="9"/>
     </row>
-    <row r="40" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="65" x14ac:dyDescent="0.35">
       <c r="A40" s="8">
         <v>38</v>
       </c>
@@ -4772,7 +4772,7 @@
       </c>
       <c r="G40" s="9"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="13" x14ac:dyDescent="0.35">
       <c r="A41" s="8">
         <v>39</v>
       </c>
@@ -4789,7 +4789,7 @@
       </c>
       <c r="G41" s="9"/>
     </row>
-    <row r="42" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="52" x14ac:dyDescent="0.35">
       <c r="A42" s="38">
         <v>40</v>
       </c>
@@ -4810,7 +4810,7 @@
       </c>
       <c r="G42" s="9"/>
     </row>
-    <row r="43" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="52" x14ac:dyDescent="0.35">
       <c r="A43" s="38">
         <v>41</v>
       </c>
@@ -4831,7 +4831,7 @@
       </c>
       <c r="G43" s="9"/>
     </row>
-    <row r="44" spans="1:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" s="1" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A44" s="20">
         <v>42</v>
       </c>
@@ -4864,35 +4864,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" sqref="A1:G1"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="14"/>
+    <col min="1" max="1" width="9.1796875" style="14"/>
     <col min="2" max="2" width="62" style="7" customWidth="1"/>
-    <col min="3" max="4" width="19.85546875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" style="14" customWidth="1"/>
-    <col min="6" max="7" width="39.42578125" style="15" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="7"/>
+    <col min="3" max="4" width="19.81640625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="19.81640625" style="14" customWidth="1"/>
+    <col min="6" max="7" width="39.453125" style="15" customWidth="1"/>
+    <col min="8" max="16384" width="9.1796875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="69" t="s">
+    <row r="1" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="71" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="71"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="73"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -4915,7 +4915,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A3" s="38">
         <v>1</v>
       </c>
@@ -4934,16 +4934,14 @@
       </c>
       <c r="G3" s="55"/>
     </row>
-    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="39" x14ac:dyDescent="0.35">
       <c r="A4" s="38">
         <v>2</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="38" t="s">
-        <v>7</v>
-      </c>
+      <c r="C4" s="38"/>
       <c r="D4" s="38" t="s">
         <v>111</v>
       </c>
@@ -4955,7 +4953,7 @@
       </c>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="52" x14ac:dyDescent="0.35">
       <c r="A5" s="38">
         <v>3</v>
       </c>
@@ -4972,7 +4970,7 @@
       </c>
       <c r="G5" s="22"/>
     </row>
-    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A6" s="38">
         <v>4</v>
       </c>
@@ -4993,7 +4991,7 @@
       </c>
       <c r="G6" s="22"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="38">
         <v>5</v>
       </c>
@@ -5014,7 +5012,7 @@
       </c>
       <c r="G7" s="22"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="38">
         <v>6</v>
       </c>
@@ -5035,7 +5033,7 @@
       </c>
       <c r="G8" s="22"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="38">
         <v>7</v>
       </c>
@@ -5056,7 +5054,7 @@
       </c>
       <c r="G9" s="22"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="38">
         <v>8</v>
       </c>
@@ -5077,7 +5075,7 @@
       </c>
       <c r="G10" s="22"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="38">
         <v>9</v>
       </c>
@@ -5098,7 +5096,7 @@
       </c>
       <c r="G11" s="22"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="38">
         <v>10</v>
       </c>
@@ -5119,7 +5117,7 @@
       </c>
       <c r="G12" s="22"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="38">
         <v>11</v>
       </c>
@@ -5140,7 +5138,7 @@
       </c>
       <c r="G13" s="22"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="38">
         <v>12</v>
       </c>
@@ -5161,7 +5159,7 @@
       </c>
       <c r="G14" s="22"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="38">
         <v>13</v>
       </c>
@@ -5178,7 +5176,7 @@
       </c>
       <c r="G15" s="22"/>
     </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A16" s="38">
         <v>14</v>
       </c>
@@ -5199,7 +5197,7 @@
       </c>
       <c r="G16" s="22"/>
     </row>
-    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A17" s="38">
         <v>15</v>
       </c>
@@ -5220,7 +5218,7 @@
       </c>
       <c r="G17" s="22"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="38">
         <v>16</v>
       </c>
@@ -5241,7 +5239,7 @@
       </c>
       <c r="G18" s="22"/>
     </row>
-    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A19" s="38">
         <v>17</v>
       </c>
@@ -5262,7 +5260,7 @@
       </c>
       <c r="G19" s="22"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="38">
         <v>18</v>
       </c>
@@ -5279,7 +5277,7 @@
       </c>
       <c r="G20" s="22"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="38">
         <v>19</v>
       </c>
@@ -5298,7 +5296,7 @@
       </c>
       <c r="G21" s="22"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="38">
         <v>20</v>
       </c>
@@ -5315,7 +5313,7 @@
       </c>
       <c r="G22" s="22"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="38">
         <v>21</v>
       </c>
@@ -5332,7 +5330,7 @@
       </c>
       <c r="G23" s="22"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="38">
         <v>22</v>
       </c>
@@ -5351,7 +5349,7 @@
       </c>
       <c r="G24" s="22"/>
     </row>
-    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="39" x14ac:dyDescent="0.35">
       <c r="A25" s="38">
         <v>23</v>
       </c>
@@ -5370,7 +5368,7 @@
       </c>
       <c r="G25" s="22"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="38">
         <v>24</v>
       </c>
@@ -5389,7 +5387,7 @@
       </c>
       <c r="G26" s="22"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="38">
         <v>25</v>
       </c>
@@ -5408,7 +5406,7 @@
       </c>
       <c r="G27" s="22"/>
     </row>
-    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A28" s="38">
         <v>26</v>
       </c>
@@ -5423,7 +5421,7 @@
       </c>
       <c r="G28" s="22"/>
     </row>
-    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A29" s="38">
         <v>27</v>
       </c>
@@ -5438,7 +5436,7 @@
       </c>
       <c r="G29" s="22"/>
     </row>
-    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A30" s="38">
         <v>28</v>
       </c>
@@ -5453,7 +5451,7 @@
       </c>
       <c r="G30" s="22"/>
     </row>
-    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A31" s="38">
         <v>29</v>
       </c>
@@ -5468,7 +5466,7 @@
       </c>
       <c r="G31" s="22"/>
     </row>
-    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A32" s="38">
         <v>30</v>
       </c>
@@ -5483,7 +5481,7 @@
       </c>
       <c r="G32" s="22"/>
     </row>
-    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A33" s="38">
         <v>31</v>
       </c>
@@ -5498,7 +5496,7 @@
       </c>
       <c r="G33" s="22"/>
     </row>
-    <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A34" s="38">
         <v>32</v>
       </c>
@@ -5513,7 +5511,7 @@
       </c>
       <c r="G34" s="22"/>
     </row>
-    <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A35" s="38">
         <v>33</v>
       </c>
@@ -5544,37 +5542,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B30" sqref="B30"/>
+      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" style="14" customWidth="1"/>
+    <col min="1" max="1" width="6.81640625" style="14" customWidth="1"/>
     <col min="2" max="2" width="72" style="7" customWidth="1"/>
-    <col min="3" max="3" width="41.42578125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" style="48" customWidth="1"/>
-    <col min="5" max="5" width="27.85546875" style="48" customWidth="1"/>
-    <col min="6" max="6" width="27.42578125" style="31" customWidth="1"/>
-    <col min="7" max="7" width="27.28515625" style="7" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="7"/>
+    <col min="3" max="3" width="41.453125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="24.1796875" style="48" customWidth="1"/>
+    <col min="5" max="5" width="27.81640625" style="48" customWidth="1"/>
+    <col min="6" max="6" width="27.453125" style="31" customWidth="1"/>
+    <col min="7" max="7" width="27.26953125" style="7" customWidth="1"/>
+    <col min="8" max="16384" width="9.1796875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="69" t="s">
+    <row r="1" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="71" t="s">
         <v>169</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="71"/>
-    </row>
-    <row r="2" spans="1:7" s="32" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="73"/>
+    </row>
+    <row r="2" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="57" t="s">
         <v>1</v>
       </c>
@@ -5597,11 +5595,11 @@
         <v>241</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="52" x14ac:dyDescent="0.35">
       <c r="A3" s="33">
         <v>1</v>
       </c>
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="67" t="s">
         <v>170</v>
       </c>
       <c r="C3" s="35" t="s">
@@ -5618,11 +5616,11 @@
       </c>
       <c r="G3" s="34"/>
     </row>
-    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="39" x14ac:dyDescent="0.35">
       <c r="A4" s="33">
         <v>2</v>
       </c>
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="67" t="s">
         <v>173</v>
       </c>
       <c r="C4" s="35" t="s">
@@ -5639,11 +5637,11 @@
       </c>
       <c r="G4" s="37"/>
     </row>
-    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="33">
         <v>3</v>
       </c>
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="67" t="s">
         <v>176</v>
       </c>
       <c r="C5" s="35" t="s">
@@ -5660,11 +5658,11 @@
       </c>
       <c r="G5" s="37"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="33">
         <v>4</v>
       </c>
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="67" t="s">
         <v>179</v>
       </c>
       <c r="C6" s="35"/>
@@ -5679,11 +5677,11 @@
       </c>
       <c r="G6" s="37"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="33">
         <v>5</v>
       </c>
-      <c r="B7" s="72" t="s">
+      <c r="B7" s="67" t="s">
         <v>181</v>
       </c>
       <c r="C7" s="35"/>
@@ -5698,11 +5696,11 @@
       </c>
       <c r="G7" s="37"/>
     </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A8" s="33">
         <v>6</v>
       </c>
-      <c r="B8" s="72" t="s">
+      <c r="B8" s="67" t="s">
         <v>184</v>
       </c>
       <c r="C8" s="35" t="s">
@@ -5719,11 +5717,11 @@
       </c>
       <c r="G8" s="37"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="33">
         <v>7</v>
       </c>
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="67" t="s">
         <v>185</v>
       </c>
       <c r="C9" s="35"/>
@@ -5738,11 +5736,11 @@
       </c>
       <c r="G9" s="37"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="33">
         <v>8</v>
       </c>
-      <c r="B10" s="72" t="s">
+      <c r="B10" s="67" t="s">
         <v>186</v>
       </c>
       <c r="C10" s="35"/>
@@ -5757,11 +5755,11 @@
       </c>
       <c r="G10" s="37"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="33">
         <v>9</v>
       </c>
-      <c r="B11" s="72" t="s">
+      <c r="B11" s="67" t="s">
         <v>188</v>
       </c>
       <c r="C11" s="35" t="s">
@@ -5774,11 +5772,11 @@
       </c>
       <c r="G11" s="37"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="33">
         <v>10</v>
       </c>
-      <c r="B12" s="72" t="s">
+      <c r="B12" s="67" t="s">
         <v>189</v>
       </c>
       <c r="C12" s="35" t="s">
@@ -5791,11 +5789,11 @@
       </c>
       <c r="G12" s="37"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="33">
         <v>11</v>
       </c>
-      <c r="B13" s="72" t="s">
+      <c r="B13" s="67" t="s">
         <v>190</v>
       </c>
       <c r="C13" s="35" t="s">
@@ -5808,11 +5806,11 @@
       </c>
       <c r="G13" s="37"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="33">
         <v>12</v>
       </c>
-      <c r="B14" s="72" t="s">
+      <c r="B14" s="67" t="s">
         <v>191</v>
       </c>
       <c r="C14" s="35" t="s">
@@ -5825,11 +5823,11 @@
       </c>
       <c r="G14" s="37"/>
     </row>
-    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="33">
         <v>13</v>
       </c>
-      <c r="B15" s="72" t="s">
+      <c r="B15" s="67" t="s">
         <v>192</v>
       </c>
       <c r="C15" s="35" t="s">
@@ -5846,11 +5844,11 @@
       </c>
       <c r="G15" s="34"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="33">
         <v>14</v>
       </c>
-      <c r="B16" s="73" t="s">
+      <c r="B16" s="68" t="s">
         <v>195</v>
       </c>
       <c r="C16" s="35" t="s">
@@ -5867,11 +5865,11 @@
       </c>
       <c r="G16" s="37"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="33">
         <v>15</v>
       </c>
-      <c r="B17" s="72" t="s">
+      <c r="B17" s="67" t="s">
         <v>196</v>
       </c>
       <c r="C17" s="35" t="s">
@@ -5888,11 +5886,11 @@
       </c>
       <c r="G17" s="37"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="33">
         <v>16</v>
       </c>
-      <c r="B18" s="72" t="s">
+      <c r="B18" s="67" t="s">
         <v>197</v>
       </c>
       <c r="C18" s="35" t="s">
@@ -5909,11 +5907,11 @@
       </c>
       <c r="G18" s="37"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="33">
         <v>17</v>
       </c>
-      <c r="B19" s="73" t="s">
+      <c r="B19" s="68" t="s">
         <v>198</v>
       </c>
       <c r="C19" s="35" t="s">
@@ -5926,11 +5924,11 @@
       </c>
       <c r="G19" s="37"/>
     </row>
-    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="33">
         <v>18</v>
       </c>
-      <c r="B20" s="72" t="s">
+      <c r="B20" s="67" t="s">
         <v>199</v>
       </c>
       <c r="C20" s="35" t="s">
@@ -5943,11 +5941,11 @@
       </c>
       <c r="G20" s="37"/>
     </row>
-    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A21" s="33">
         <v>19</v>
       </c>
-      <c r="B21" s="72" t="s">
+      <c r="B21" s="67" t="s">
         <v>200</v>
       </c>
       <c r="C21" s="35" t="s">
@@ -5964,11 +5962,11 @@
       </c>
       <c r="G21" s="37"/>
     </row>
-    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A22" s="33">
         <v>20</v>
       </c>
-      <c r="B22" s="72" t="s">
+      <c r="B22" s="67" t="s">
         <v>201</v>
       </c>
       <c r="C22" s="35" t="s">
@@ -5985,11 +5983,11 @@
       </c>
       <c r="G22" s="37"/>
     </row>
-    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A23" s="33">
         <v>21</v>
       </c>
-      <c r="B23" s="72" t="s">
+      <c r="B23" s="67" t="s">
         <v>204</v>
       </c>
       <c r="C23" s="35" t="s">
@@ -6006,11 +6004,11 @@
       </c>
       <c r="G23" s="37"/>
     </row>
-    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A24" s="33">
         <v>22</v>
       </c>
-      <c r="B24" s="72" t="s">
+      <c r="B24" s="67" t="s">
         <v>207</v>
       </c>
       <c r="C24" s="35" t="s">
@@ -6027,11 +6025,11 @@
       </c>
       <c r="G24" s="37"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="33">
         <v>23</v>
       </c>
-      <c r="B25" s="72" t="s">
+      <c r="B25" s="67" t="s">
         <v>263</v>
       </c>
       <c r="C25" s="35" t="s">
@@ -6042,11 +6040,11 @@
       <c r="F25" s="34"/>
       <c r="G25" s="37"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="33">
         <v>24</v>
       </c>
-      <c r="B26" s="72" t="s">
+      <c r="B26" s="67" t="s">
         <v>264</v>
       </c>
       <c r="C26" s="35" t="s">
@@ -6074,29 +6072,29 @@
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" style="14" customWidth="1"/>
-    <col min="2" max="2" width="76.5703125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="41.42578125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" style="7" customWidth="1"/>
-    <col min="6" max="7" width="29.5703125" style="7" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="6.81640625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="76.54296875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="41.453125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="24.1796875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="20.1796875" style="7" customWidth="1"/>
+    <col min="6" max="7" width="29.54296875" style="7" customWidth="1"/>
+    <col min="8" max="16384" width="9.1796875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="69" t="s">
+    <row r="1" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="71" t="s">
         <v>211</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="71"/>
-    </row>
-    <row r="2" spans="1:7" s="32" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="73"/>
+    </row>
+    <row r="2" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="57" t="s">
         <v>1</v>
       </c>
@@ -6119,7 +6117,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="39" x14ac:dyDescent="0.35">
       <c r="A3" s="33">
         <v>1</v>
       </c>
@@ -6134,7 +6132,7 @@
       </c>
       <c r="G3" s="37"/>
     </row>
-    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="39" x14ac:dyDescent="0.35">
       <c r="A4" s="33">
         <v>2</v>
       </c>
@@ -6149,7 +6147,7 @@
       </c>
       <c r="G4" s="37"/>
     </row>
-    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="39" x14ac:dyDescent="0.35">
       <c r="A5" s="33">
         <v>3</v>
       </c>
@@ -6170,7 +6168,7 @@
       </c>
       <c r="G5" s="34"/>
     </row>
-    <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="52" x14ac:dyDescent="0.35">
       <c r="A6" s="33">
         <v>4</v>
       </c>
@@ -6189,7 +6187,7 @@
       </c>
       <c r="G6" s="34"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="33">
         <v>5</v>
       </c>
@@ -6204,7 +6202,7 @@
       </c>
       <c r="G7" s="37"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="33">
         <v>6</v>
       </c>
@@ -6219,7 +6217,7 @@
       </c>
       <c r="G8" s="37"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="33">
         <v>7</v>
       </c>
@@ -6234,7 +6232,7 @@
       </c>
       <c r="G9" s="37"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="33">
         <v>8</v>
       </c>
@@ -6249,7 +6247,7 @@
       </c>
       <c r="G10" s="37"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="33">
         <v>9</v>
       </c>
@@ -6264,7 +6262,7 @@
       </c>
       <c r="G11" s="37"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="33">
         <v>10</v>
       </c>
@@ -6287,12 +6285,29 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ProjectIGName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectIGName>
+    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </LikedBy>
+    <ProjectAccountName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectAccountName>
+    <ProjectName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">MOSIP</ProjectName>
+    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </RatedBy>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6503,35 +6518,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ProjectIGName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectIGName>
-    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </LikedBy>
-    <ProjectAccountName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectAccountName>
-    <ProjectName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">MOSIP</ProjectName>
-    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </RatedBy>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3174CE2-5708-4158-93D0-CBBFFB333158}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50A5568B-AE5A-4E16-9E1F-F6758BCAE61C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="fd9ad297-cc8c-4afc-b828-e13c9647a5fa"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6556,12 +6557,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50A5568B-AE5A-4E16-9E1F-F6758BCAE61C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3174CE2-5708-4158-93D0-CBBFFB333158}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="fd9ad297-cc8c-4afc-b828-e13c9647a5fa"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>